--- a/src/main/resources/excel/meetingSheet_1st2term.xlsx
+++ b/src/main/resources/excel/meetingSheet_1st2term.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamazakikeisuke/IdeaProjects/student_management_system/src/main/resources/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/MEGAsync/IdeaProjects/student_management_system/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629B844F-F877-E041-8C82-C3B2A83E358F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F14287-C773-A149-A1F2-8262D907D319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="1460" windowWidth="25260" windowHeight="16540" xr2:uid="{B568BDAE-9867-864B-9F86-2CF23C3644F0}"/>
   </bookViews>
@@ -33,14 +33,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -761,7 +761,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -1553,13 +1553,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1767,132 +1778,279 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1902,19 +2060,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1">
@@ -1926,151 +2075,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2410,7 +2424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E040C1C8-E3C5-9F44-AD5D-963E75E85E9B}">
   <dimension ref="A1:AC57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -2428,86 +2442,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" customHeight="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
       <c r="S1" s="3"/>
-      <c r="T1" s="83" t="s">
+      <c r="T1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="83" t="s">
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="84"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
       <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="25" customHeight="1">
-      <c r="A2" s="123"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
       <c r="S2" s="6"/>
-      <c r="T2" s="85" t="s">
+      <c r="T2" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="122"/>
-      <c r="AA2" s="122"/>
-      <c r="AB2" s="122"/>
+      <c r="U2" s="170"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
       <c r="AC2" s="7"/>
     </row>
     <row r="3" spans="1:29" ht="18" customHeight="1">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="D3" s="128" t="s">
+      <c r="B3" s="108"/>
+      <c r="D3" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="129"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="14" t="s">
         <v>12</v>
       </c>
@@ -2580,17 +2594,17 @@
       </c>
     </row>
     <row r="4" spans="1:29" ht="18" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="98" t="str" cm="1">
+      <c r="B4" s="120" t="str" cm="1">
         <f t="array" ref="B4">IFERROR(_xlfn.IFS(P9&gt;9,P9*2+P7,P8&gt;9,P8*2+P7,P7&gt;9,P7*3,P6&gt;9,P6*3,P5&gt;9,P5*3,P4&gt;9,P4*3),"")</f>
         <v/>
       </c>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="131"/>
+      <c r="E4" s="112"/>
       <c r="F4" s="18"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -2618,12 +2632,12 @@
       <c r="AC4" s="42"/>
     </row>
     <row r="5" spans="1:29" ht="18" customHeight="1">
-      <c r="A5" s="93"/>
-      <c r="B5" s="98"/>
-      <c r="D5" s="132" t="s">
+      <c r="A5" s="117"/>
+      <c r="B5" s="120"/>
+      <c r="D5" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="133"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="21"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -2651,17 +2665,17 @@
       <c r="AC5" s="42"/>
     </row>
     <row r="6" spans="1:29" ht="18" customHeight="1">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="98" t="str" cm="1">
+      <c r="B6" s="120" t="str" cm="1">
         <f t="array" ref="B6">IFERROR(_xlfn.IFS(P9&gt;9,P9,P8&gt;9,P8,P7&gt;9,P7,P6&gt;9,P6,P5&gt;9,P5,P4&gt;9,P4),"")</f>
         <v/>
       </c>
-      <c r="D6" s="134" t="s">
+      <c r="D6" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="135"/>
+      <c r="E6" s="116"/>
       <c r="F6" s="25"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
@@ -2689,12 +2703,12 @@
       <c r="AC6" s="42"/>
     </row>
     <row r="7" spans="1:29" ht="18" customHeight="1">
-      <c r="A7" s="93"/>
-      <c r="B7" s="98"/>
-      <c r="D7" s="136" t="s">
+      <c r="A7" s="117"/>
+      <c r="B7" s="120"/>
+      <c r="D7" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="137"/>
+      <c r="E7" s="119"/>
       <c r="F7" s="29"/>
       <c r="G7" s="30"/>
       <c r="H7" s="30"/>
@@ -2722,17 +2736,17 @@
       <c r="AC7" s="45"/>
     </row>
     <row r="8" spans="1:29" ht="18" customHeight="1">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="98" t="str" cm="1">
+      <c r="B8" s="120" t="str" cm="1">
         <f t="array" ref="B8">IFERROR(_xlfn.IFS(K9&gt;9,K9+K7,K8&gt;9,K8+K7,K7&gt;9,K7*2,K6&gt;0,K6*2,K5&gt;0,K5*2,K4&gt;0,K4*2),"")</f>
         <v/>
       </c>
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="88"/>
+      <c r="E8" s="142"/>
       <c r="F8" s="33"/>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
@@ -2760,12 +2774,12 @@
       <c r="AC8" s="63"/>
     </row>
     <row r="9" spans="1:29" ht="18" customHeight="1">
-      <c r="A9" s="93"/>
-      <c r="B9" s="98"/>
-      <c r="D9" s="89" t="s">
+      <c r="A9" s="117"/>
+      <c r="B9" s="120"/>
+      <c r="D9" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="90"/>
+      <c r="E9" s="144"/>
       <c r="F9" s="29"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
@@ -2793,10 +2807,10 @@
       <c r="AC9" s="42"/>
     </row>
     <row r="10" spans="1:29" ht="18" customHeight="1">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="98" t="str" cm="1">
+      <c r="B10" s="120" t="str" cm="1">
         <f t="array" ref="B10">IFERROR(_xlfn.IFS(K9&gt;0,K9,K8&gt;0,K8,K7&gt;0,K7,K6&gt;0,K6,K5&gt;0,K5,K4&gt;0,K4),"")</f>
         <v/>
       </c>
@@ -2829,12 +2843,12 @@
       <c r="AC10" s="42"/>
     </row>
     <row r="11" spans="1:29" ht="18" customHeight="1">
-      <c r="A11" s="93"/>
-      <c r="B11" s="98"/>
-      <c r="D11" s="91" t="s">
+      <c r="A11" s="117"/>
+      <c r="B11" s="120"/>
+      <c r="D11" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="92"/>
+      <c r="E11" s="74"/>
       <c r="F11" s="43" t="s">
         <v>12</v>
       </c>
@@ -2884,17 +2898,17 @@
       <c r="AC11" s="45"/>
     </row>
     <row r="12" spans="1:29" ht="18" customHeight="1">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="99" t="str">
+      <c r="B12" s="123" t="str">
         <f>IFERROR(LOOKUP(10^10,N12:N15),"")</f>
         <v/>
       </c>
-      <c r="D12" s="153" t="s">
+      <c r="D12" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="154"/>
+      <c r="E12" s="84"/>
       <c r="F12" s="18"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2931,12 +2945,12 @@
       <c r="AC12" s="64"/>
     </row>
     <row r="13" spans="1:29" ht="18" customHeight="1">
-      <c r="A13" s="94"/>
-      <c r="B13" s="100"/>
-      <c r="D13" s="153" t="s">
+      <c r="A13" s="145"/>
+      <c r="B13" s="124"/>
+      <c r="D13" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="154"/>
+      <c r="E13" s="84"/>
       <c r="F13" s="18"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -2973,17 +2987,17 @@
       <c r="AC13" s="42"/>
     </row>
     <row r="14" spans="1:29" ht="18" customHeight="1">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="99" t="str">
+      <c r="B14" s="123" t="str">
         <f>IFERROR(LOOKUP(10^10,O12:O15),"")</f>
         <v/>
       </c>
-      <c r="D14" s="153" t="s">
+      <c r="D14" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="154"/>
+      <c r="E14" s="84"/>
       <c r="F14" s="18"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -3020,12 +3034,12 @@
       <c r="AC14" s="45"/>
     </row>
     <row r="15" spans="1:29" ht="18" customHeight="1">
-      <c r="A15" s="96"/>
-      <c r="B15" s="100"/>
-      <c r="D15" s="155" t="s">
+      <c r="A15" s="146"/>
+      <c r="B15" s="124"/>
+      <c r="D15" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="156"/>
+      <c r="E15" s="86"/>
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
@@ -3060,10 +3074,10 @@
       <c r="AC15" s="4"/>
     </row>
     <row r="16" spans="1:29" ht="18" customHeight="1">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="99" t="str">
+      <c r="B16" s="123" t="str">
         <f>IFERROR(LOOKUP(10^10,P12:P15),"")</f>
         <v/>
       </c>
@@ -3096,8 +3110,8 @@
       <c r="AC16" s="51"/>
     </row>
     <row r="17" spans="1:29" ht="18" customHeight="1">
-      <c r="A17" s="97"/>
-      <c r="B17" s="101"/>
+      <c r="A17" s="122"/>
+      <c r="B17" s="125"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -3141,30 +3155,30 @@
       <c r="AC18" s="53"/>
     </row>
     <row r="19" spans="1:29" ht="18" customHeight="1">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="103"/>
-      <c r="C19" s="138" t="s">
+      <c r="B19" s="127"/>
+      <c r="C19" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="139"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="144" t="s">
+      <c r="D19" s="91"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="144"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="145"/>
-      <c r="K19" s="160" t="s">
+      <c r="G19" s="134"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="L19" s="139"/>
-      <c r="M19" s="139"/>
-      <c r="N19" s="139"/>
-      <c r="O19" s="139"/>
-      <c r="P19" s="161"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="92"/>
       <c r="R19" s="55"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -3179,22 +3193,22 @@
       <c r="AC19" s="53"/>
     </row>
     <row r="20" spans="1:29" ht="20" customHeight="1">
-      <c r="A20" s="104"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="141"/>
-      <c r="L20" s="142"/>
-      <c r="M20" s="142"/>
-      <c r="N20" s="142"/>
-      <c r="O20" s="142"/>
-      <c r="P20" s="162"/>
+      <c r="A20" s="128"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="95"/>
       <c r="R20" s="54"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
@@ -3209,28 +3223,28 @@
       <c r="AC20" s="53"/>
     </row>
     <row r="21" spans="1:29" ht="19" customHeight="1">
-      <c r="A21" s="114"/>
-      <c r="B21" s="115"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="69" t="str">
+      <c r="A21" s="130"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="157" t="str">
         <f>IF(I21="","","９科目合計：")</f>
         <v/>
       </c>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="106" t="str">
+      <c r="G21" s="158"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="98" t="str">
         <f>IF(O21="","","５科目合計：")</f>
         <v/>
       </c>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="108"/>
-      <c r="P21" s="109"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="100"/>
       <c r="R21" s="54"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -3245,28 +3259,28 @@
       <c r="AC21" s="53"/>
     </row>
     <row r="22" spans="1:29" ht="19" customHeight="1">
-      <c r="A22" s="114"/>
-      <c r="B22" s="115"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="69" t="str">
+      <c r="A22" s="130"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="157" t="str">
         <f>IF(I22="","","９科目合計：")</f>
         <v/>
       </c>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="106" t="str">
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="98" t="str">
         <f>IF(O22="","","５科目合計：")</f>
         <v/>
       </c>
-      <c r="L22" s="107"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="109"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="100"/>
       <c r="R22" s="54"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
@@ -3281,28 +3295,28 @@
       <c r="AC22" s="53"/>
     </row>
     <row r="23" spans="1:29" ht="18" customHeight="1">
-      <c r="A23" s="114"/>
-      <c r="B23" s="115"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="69" t="str">
+      <c r="A23" s="130"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="157" t="str">
         <f t="shared" ref="F23:F25" si="3">IF(I23="","","９科目合計：")</f>
         <v/>
       </c>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="106" t="str">
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="98" t="str">
         <f>IF(O23="","","５科目合計：")</f>
         <v/>
       </c>
-      <c r="L23" s="107"/>
-      <c r="M23" s="107"/>
-      <c r="N23" s="107"/>
-      <c r="O23" s="108"/>
-      <c r="P23" s="109"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="100"/>
       <c r="R23" s="54"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
@@ -3317,31 +3331,31 @@
       <c r="AC23" s="53"/>
     </row>
     <row r="24" spans="1:29" ht="18" customHeight="1">
-      <c r="A24" s="114"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="69" t="str">
+      <c r="A24" s="130"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="157" t="str">
         <f>IF(I24="","","９科目合計：")</f>
         <v/>
       </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="69" t="str">
+      <c r="D24" s="158"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="157" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="106" t="str">
+      <c r="G24" s="158"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="98" t="str">
         <f>IF(O24="","","５科目合計：")</f>
         <v/>
       </c>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="107"/>
-      <c r="O24" s="108"/>
-      <c r="P24" s="109"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="100"/>
       <c r="R24" s="54"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
@@ -3356,31 +3370,31 @@
       <c r="AC24" s="53"/>
     </row>
     <row r="25" spans="1:29" ht="18" customHeight="1">
-      <c r="A25" s="116"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="119" t="str">
+      <c r="A25" s="163"/>
+      <c r="B25" s="164"/>
+      <c r="C25" s="165" t="str">
         <f>IF(I25="","","９科目合計：")</f>
         <v/>
       </c>
-      <c r="D25" s="120"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="119" t="str">
+      <c r="D25" s="166"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="165" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G25" s="120"/>
-      <c r="H25" s="120"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="112" t="str">
+      <c r="G25" s="166"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="160"/>
+      <c r="K25" s="161" t="str">
         <f>IF(O25="","","５科目合計：")</f>
         <v/>
       </c>
-      <c r="L25" s="113"/>
-      <c r="M25" s="113"/>
-      <c r="N25" s="113"/>
-      <c r="O25" s="110"/>
-      <c r="P25" s="168"/>
+      <c r="L25" s="162"/>
+      <c r="M25" s="162"/>
+      <c r="N25" s="162"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="70"/>
       <c r="R25" s="54"/>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
@@ -3409,28 +3423,28 @@
       <c r="AC26" s="53"/>
     </row>
     <row r="27" spans="1:29" ht="19" customHeight="1">
-      <c r="A27" s="91" t="s">
+      <c r="A27" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="92"/>
-      <c r="C27" s="92" t="s">
+      <c r="B27" s="74"/>
+      <c r="C27" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92" t="s">
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="157"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="87"/>
       <c r="R27" s="54"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
@@ -3445,22 +3459,22 @@
       <c r="AC27" s="53"/>
     </row>
     <row r="28" spans="1:29" ht="18" customHeight="1">
-      <c r="A28" s="152"/>
-      <c r="B28" s="115"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="158"/>
-      <c r="I28" s="158"/>
-      <c r="J28" s="158"/>
-      <c r="K28" s="158"/>
-      <c r="L28" s="158"/>
-      <c r="M28" s="158"/>
-      <c r="N28" s="158"/>
-      <c r="O28" s="158"/>
-      <c r="P28" s="159"/>
+      <c r="A28" s="76"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="89"/>
       <c r="R28" s="54"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
@@ -3475,22 +3489,22 @@
       <c r="AC28" s="53"/>
     </row>
     <row r="29" spans="1:29" ht="18" customHeight="1">
-      <c r="A29" s="152"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="150"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="158"/>
-      <c r="J29" s="158"/>
-      <c r="K29" s="158"/>
-      <c r="L29" s="158"/>
-      <c r="M29" s="158"/>
-      <c r="N29" s="158"/>
-      <c r="O29" s="158"/>
-      <c r="P29" s="159"/>
+      <c r="A29" s="76"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="168"/>
+      <c r="D29" s="168"/>
+      <c r="E29" s="168"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="89"/>
       <c r="R29" s="54"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
@@ -3505,22 +3519,22 @@
       <c r="AC29" s="53"/>
     </row>
     <row r="30" spans="1:29" ht="18" customHeight="1">
-      <c r="A30" s="152"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="158"/>
-      <c r="K30" s="158"/>
-      <c r="L30" s="158"/>
-      <c r="M30" s="158"/>
-      <c r="N30" s="158"/>
-      <c r="O30" s="158"/>
-      <c r="P30" s="159"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="89"/>
       <c r="R30" s="54"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
@@ -3535,22 +3549,22 @@
       <c r="AC30" s="53"/>
     </row>
     <row r="31" spans="1:29" ht="18" customHeight="1">
-      <c r="A31" s="152"/>
-      <c r="B31" s="115"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="158"/>
-      <c r="K31" s="158"/>
-      <c r="L31" s="158"/>
-      <c r="M31" s="158"/>
-      <c r="N31" s="158"/>
-      <c r="O31" s="158"/>
-      <c r="P31" s="159"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="168"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="89"/>
       <c r="R31" s="54"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
@@ -3565,22 +3579,22 @@
       <c r="AC31" s="53"/>
     </row>
     <row r="32" spans="1:29" ht="18" customHeight="1">
-      <c r="A32" s="148"/>
-      <c r="B32" s="149"/>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="166"/>
-      <c r="H32" s="166"/>
-      <c r="I32" s="166"/>
-      <c r="J32" s="166"/>
-      <c r="K32" s="166"/>
-      <c r="L32" s="166"/>
-      <c r="M32" s="166"/>
-      <c r="N32" s="166"/>
-      <c r="O32" s="166"/>
-      <c r="P32" s="167"/>
+      <c r="A32" s="149"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="81"/>
       <c r="R32" s="56"/>
       <c r="S32" s="57"/>
       <c r="T32" s="57"/>
@@ -3601,125 +3615,125 @@
       </c>
     </row>
     <row r="35" spans="1:29">
-      <c r="A35" s="163" t="s">
+      <c r="A35" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="164"/>
-      <c r="C35" s="164" t="s">
+      <c r="B35" s="72"/>
+      <c r="C35" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="164"/>
-      <c r="E35" s="164"/>
-      <c r="F35" s="164"/>
-      <c r="G35" s="164"/>
-      <c r="H35" s="164" t="s">
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="I35" s="164"/>
-      <c r="J35" s="164"/>
-      <c r="K35" s="165"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="75"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
     </row>
     <row r="36" spans="1:29">
-      <c r="A36" s="152"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="169"/>
+      <c r="A36" s="76"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="79"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
     </row>
     <row r="37" spans="1:29">
-      <c r="A37" s="152"/>
-      <c r="B37" s="115"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="169"/>
+      <c r="A37" s="76"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="79"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
     </row>
     <row r="38" spans="1:29">
-      <c r="A38" s="152"/>
-      <c r="B38" s="115"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="169"/>
+      <c r="A38" s="76"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="79"/>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
     </row>
     <row r="39" spans="1:29">
-      <c r="A39" s="152"/>
-      <c r="B39" s="115"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="169"/>
+      <c r="A39" s="76"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="79"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
     </row>
     <row r="40" spans="1:29">
-      <c r="A40" s="152"/>
-      <c r="B40" s="115"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="169"/>
+      <c r="A40" s="76"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="79"/>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
     </row>
     <row r="41" spans="1:29">
-      <c r="A41" s="148"/>
-      <c r="B41" s="149"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="170"/>
+      <c r="A41" s="149"/>
+      <c r="B41" s="150"/>
+      <c r="C41" s="151"/>
+      <c r="D41" s="151"/>
+      <c r="E41" s="151"/>
+      <c r="F41" s="151"/>
+      <c r="G41" s="151"/>
+      <c r="H41" s="151"/>
+      <c r="I41" s="151"/>
+      <c r="J41" s="151"/>
+      <c r="K41" s="152"/>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
@@ -3736,196 +3750,196 @@
       </c>
     </row>
     <row r="45" spans="1:29">
-      <c r="A45" s="76" t="s">
+      <c r="A45" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="77"/>
-      <c r="C45" s="77" t="s">
+      <c r="B45" s="147"/>
+      <c r="C45" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="77"/>
-      <c r="M45" s="77"/>
-      <c r="N45" s="77"/>
-      <c r="O45" s="77"/>
-      <c r="P45" s="77"/>
-      <c r="Q45" s="77" t="s">
+      <c r="D45" s="147"/>
+      <c r="E45" s="147"/>
+      <c r="F45" s="147"/>
+      <c r="G45" s="147"/>
+      <c r="H45" s="147"/>
+      <c r="I45" s="147"/>
+      <c r="J45" s="147"/>
+      <c r="K45" s="147"/>
+      <c r="L45" s="147"/>
+      <c r="M45" s="147"/>
+      <c r="N45" s="147"/>
+      <c r="O45" s="147"/>
+      <c r="P45" s="147"/>
+      <c r="Q45" s="147" t="s">
         <v>66</v>
       </c>
-      <c r="R45" s="77"/>
-      <c r="S45" s="77"/>
-      <c r="T45" s="77"/>
-      <c r="U45" s="77"/>
-      <c r="V45" s="77"/>
-      <c r="W45" s="77"/>
-      <c r="X45" s="77"/>
-      <c r="Y45" s="77"/>
-      <c r="Z45" s="77"/>
-      <c r="AA45" s="77"/>
-      <c r="AB45" s="77"/>
-      <c r="AC45" s="82"/>
+      <c r="R45" s="147"/>
+      <c r="S45" s="147"/>
+      <c r="T45" s="147"/>
+      <c r="U45" s="147"/>
+      <c r="V45" s="147"/>
+      <c r="W45" s="147"/>
+      <c r="X45" s="147"/>
+      <c r="Y45" s="147"/>
+      <c r="Z45" s="147"/>
+      <c r="AA45" s="147"/>
+      <c r="AB45" s="147"/>
+      <c r="AC45" s="148"/>
     </row>
     <row r="46" spans="1:29">
-      <c r="A46" s="152"/>
-      <c r="B46" s="115"/>
-      <c r="C46" s="158"/>
-      <c r="D46" s="158"/>
-      <c r="E46" s="158"/>
-      <c r="F46" s="158"/>
-      <c r="G46" s="158"/>
-      <c r="H46" s="158"/>
-      <c r="I46" s="158"/>
-      <c r="J46" s="158"/>
-      <c r="K46" s="158"/>
-      <c r="L46" s="158"/>
-      <c r="M46" s="158"/>
-      <c r="N46" s="158"/>
-      <c r="O46" s="158"/>
-      <c r="P46" s="158"/>
-      <c r="Q46" s="158"/>
-      <c r="R46" s="158"/>
-      <c r="S46" s="158"/>
-      <c r="T46" s="158"/>
-      <c r="U46" s="158"/>
-      <c r="V46" s="158"/>
-      <c r="W46" s="158"/>
-      <c r="X46" s="158"/>
-      <c r="Y46" s="158"/>
-      <c r="Z46" s="158"/>
-      <c r="AA46" s="158"/>
-      <c r="AB46" s="158"/>
-      <c r="AC46" s="159"/>
+      <c r="A46" s="76"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="88"/>
+      <c r="J46" s="88"/>
+      <c r="K46" s="88"/>
+      <c r="L46" s="88"/>
+      <c r="M46" s="88"/>
+      <c r="N46" s="88"/>
+      <c r="O46" s="88"/>
+      <c r="P46" s="88"/>
+      <c r="Q46" s="88"/>
+      <c r="R46" s="88"/>
+      <c r="S46" s="88"/>
+      <c r="T46" s="88"/>
+      <c r="U46" s="88"/>
+      <c r="V46" s="88"/>
+      <c r="W46" s="88"/>
+      <c r="X46" s="88"/>
+      <c r="Y46" s="88"/>
+      <c r="Z46" s="88"/>
+      <c r="AA46" s="88"/>
+      <c r="AB46" s="88"/>
+      <c r="AC46" s="89"/>
     </row>
     <row r="47" spans="1:29">
-      <c r="A47" s="152"/>
-      <c r="B47" s="115"/>
-      <c r="C47" s="158"/>
-      <c r="D47" s="158"/>
-      <c r="E47" s="158"/>
-      <c r="F47" s="158"/>
-      <c r="G47" s="158"/>
-      <c r="H47" s="158"/>
-      <c r="I47" s="158"/>
-      <c r="J47" s="158"/>
-      <c r="K47" s="158"/>
-      <c r="L47" s="158"/>
-      <c r="M47" s="158"/>
-      <c r="N47" s="158"/>
-      <c r="O47" s="158"/>
-      <c r="P47" s="158"/>
-      <c r="Q47" s="158"/>
-      <c r="R47" s="158"/>
-      <c r="S47" s="158"/>
-      <c r="T47" s="158"/>
-      <c r="U47" s="158"/>
-      <c r="V47" s="158"/>
-      <c r="W47" s="158"/>
-      <c r="X47" s="158"/>
-      <c r="Y47" s="158"/>
-      <c r="Z47" s="158"/>
-      <c r="AA47" s="158"/>
-      <c r="AB47" s="158"/>
-      <c r="AC47" s="159"/>
+      <c r="A47" s="76"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="88"/>
+      <c r="J47" s="88"/>
+      <c r="K47" s="88"/>
+      <c r="L47" s="88"/>
+      <c r="M47" s="88"/>
+      <c r="N47" s="88"/>
+      <c r="O47" s="88"/>
+      <c r="P47" s="88"/>
+      <c r="Q47" s="88"/>
+      <c r="R47" s="88"/>
+      <c r="S47" s="88"/>
+      <c r="T47" s="88"/>
+      <c r="U47" s="88"/>
+      <c r="V47" s="88"/>
+      <c r="W47" s="88"/>
+      <c r="X47" s="88"/>
+      <c r="Y47" s="88"/>
+      <c r="Z47" s="88"/>
+      <c r="AA47" s="88"/>
+      <c r="AB47" s="88"/>
+      <c r="AC47" s="89"/>
     </row>
     <row r="48" spans="1:29">
-      <c r="A48" s="152"/>
-      <c r="B48" s="115"/>
-      <c r="C48" s="158"/>
-      <c r="D48" s="158"/>
-      <c r="E48" s="158"/>
-      <c r="F48" s="158"/>
-      <c r="G48" s="158"/>
-      <c r="H48" s="158"/>
-      <c r="I48" s="158"/>
-      <c r="J48" s="158"/>
-      <c r="K48" s="158"/>
-      <c r="L48" s="158"/>
-      <c r="M48" s="158"/>
-      <c r="N48" s="158"/>
-      <c r="O48" s="158"/>
-      <c r="P48" s="158"/>
-      <c r="Q48" s="158"/>
-      <c r="R48" s="158"/>
-      <c r="S48" s="158"/>
-      <c r="T48" s="158"/>
-      <c r="U48" s="158"/>
-      <c r="V48" s="158"/>
-      <c r="W48" s="158"/>
-      <c r="X48" s="158"/>
-      <c r="Y48" s="158"/>
-      <c r="Z48" s="158"/>
-      <c r="AA48" s="158"/>
-      <c r="AB48" s="158"/>
-      <c r="AC48" s="159"/>
+      <c r="A48" s="76"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="88"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="88"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="88"/>
+      <c r="J48" s="88"/>
+      <c r="K48" s="88"/>
+      <c r="L48" s="88"/>
+      <c r="M48" s="88"/>
+      <c r="N48" s="88"/>
+      <c r="O48" s="88"/>
+      <c r="P48" s="88"/>
+      <c r="Q48" s="88"/>
+      <c r="R48" s="88"/>
+      <c r="S48" s="88"/>
+      <c r="T48" s="88"/>
+      <c r="U48" s="88"/>
+      <c r="V48" s="88"/>
+      <c r="W48" s="88"/>
+      <c r="X48" s="88"/>
+      <c r="Y48" s="88"/>
+      <c r="Z48" s="88"/>
+      <c r="AA48" s="88"/>
+      <c r="AB48" s="88"/>
+      <c r="AC48" s="89"/>
     </row>
     <row r="49" spans="1:29">
-      <c r="A49" s="152"/>
-      <c r="B49" s="115"/>
-      <c r="C49" s="158"/>
-      <c r="D49" s="158"/>
-      <c r="E49" s="158"/>
-      <c r="F49" s="158"/>
-      <c r="G49" s="158"/>
-      <c r="H49" s="158"/>
-      <c r="I49" s="158"/>
-      <c r="J49" s="158"/>
-      <c r="K49" s="158"/>
-      <c r="L49" s="158"/>
-      <c r="M49" s="158"/>
-      <c r="N49" s="158"/>
-      <c r="O49" s="158"/>
-      <c r="P49" s="158"/>
-      <c r="Q49" s="158"/>
-      <c r="R49" s="158"/>
-      <c r="S49" s="158"/>
-      <c r="T49" s="158"/>
-      <c r="U49" s="158"/>
-      <c r="V49" s="158"/>
-      <c r="W49" s="158"/>
-      <c r="X49" s="158"/>
-      <c r="Y49" s="158"/>
-      <c r="Z49" s="158"/>
-      <c r="AA49" s="158"/>
-      <c r="AB49" s="158"/>
-      <c r="AC49" s="159"/>
+      <c r="A49" s="76"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="88"/>
+      <c r="E49" s="88"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="88"/>
+      <c r="J49" s="88"/>
+      <c r="K49" s="88"/>
+      <c r="L49" s="88"/>
+      <c r="M49" s="88"/>
+      <c r="N49" s="88"/>
+      <c r="O49" s="88"/>
+      <c r="P49" s="88"/>
+      <c r="Q49" s="88"/>
+      <c r="R49" s="88"/>
+      <c r="S49" s="88"/>
+      <c r="T49" s="88"/>
+      <c r="U49" s="88"/>
+      <c r="V49" s="88"/>
+      <c r="W49" s="88"/>
+      <c r="X49" s="88"/>
+      <c r="Y49" s="88"/>
+      <c r="Z49" s="88"/>
+      <c r="AA49" s="88"/>
+      <c r="AB49" s="88"/>
+      <c r="AC49" s="89"/>
     </row>
     <row r="50" spans="1:29">
-      <c r="A50" s="148"/>
-      <c r="B50" s="149"/>
-      <c r="C50" s="166"/>
-      <c r="D50" s="166"/>
-      <c r="E50" s="166"/>
-      <c r="F50" s="166"/>
-      <c r="G50" s="166"/>
-      <c r="H50" s="166"/>
-      <c r="I50" s="166"/>
-      <c r="J50" s="166"/>
-      <c r="K50" s="166"/>
-      <c r="L50" s="166"/>
-      <c r="M50" s="166"/>
-      <c r="N50" s="166"/>
-      <c r="O50" s="166"/>
-      <c r="P50" s="166"/>
-      <c r="Q50" s="166"/>
-      <c r="R50" s="166"/>
-      <c r="S50" s="166"/>
-      <c r="T50" s="166"/>
-      <c r="U50" s="166"/>
-      <c r="V50" s="166"/>
-      <c r="W50" s="166"/>
-      <c r="X50" s="166"/>
-      <c r="Y50" s="166"/>
-      <c r="Z50" s="166"/>
-      <c r="AA50" s="166"/>
-      <c r="AB50" s="166"/>
-      <c r="AC50" s="167"/>
+      <c r="A50" s="149"/>
+      <c r="B50" s="150"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="80"/>
+      <c r="J50" s="80"/>
+      <c r="K50" s="80"/>
+      <c r="L50" s="80"/>
+      <c r="M50" s="80"/>
+      <c r="N50" s="80"/>
+      <c r="O50" s="80"/>
+      <c r="P50" s="80"/>
+      <c r="Q50" s="80"/>
+      <c r="R50" s="80"/>
+      <c r="S50" s="80"/>
+      <c r="T50" s="80"/>
+      <c r="U50" s="80"/>
+      <c r="V50" s="80"/>
+      <c r="W50" s="80"/>
+      <c r="X50" s="80"/>
+      <c r="Y50" s="80"/>
+      <c r="Z50" s="80"/>
+      <c r="AA50" s="80"/>
+      <c r="AB50" s="80"/>
+      <c r="AC50" s="81"/>
     </row>
     <row r="51" spans="1:29">
       <c r="A51" s="9" t="s">
@@ -3933,319 +3947,199 @@
       </c>
     </row>
     <row r="52" spans="1:29">
-      <c r="A52" s="76" t="s">
+      <c r="A52" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="77"/>
-      <c r="C52" s="77" t="s">
+      <c r="B52" s="147"/>
+      <c r="C52" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="77"/>
-      <c r="I52" s="77"/>
-      <c r="J52" s="77"/>
-      <c r="K52" s="77"/>
-      <c r="L52" s="77"/>
-      <c r="M52" s="77"/>
-      <c r="N52" s="77"/>
-      <c r="O52" s="77"/>
-      <c r="P52" s="77"/>
-      <c r="Q52" s="78" t="s">
+      <c r="D52" s="147"/>
+      <c r="E52" s="147"/>
+      <c r="F52" s="147"/>
+      <c r="G52" s="147"/>
+      <c r="H52" s="147"/>
+      <c r="I52" s="147"/>
+      <c r="J52" s="147"/>
+      <c r="K52" s="147"/>
+      <c r="L52" s="147"/>
+      <c r="M52" s="147"/>
+      <c r="N52" s="147"/>
+      <c r="O52" s="147"/>
+      <c r="P52" s="147"/>
+      <c r="Q52" s="154" t="s">
         <v>66</v>
       </c>
-      <c r="R52" s="79"/>
-      <c r="S52" s="79"/>
-      <c r="T52" s="79"/>
-      <c r="U52" s="79"/>
-      <c r="V52" s="79"/>
-      <c r="W52" s="79"/>
-      <c r="X52" s="79"/>
-      <c r="Y52" s="79"/>
-      <c r="Z52" s="79"/>
-      <c r="AA52" s="79"/>
-      <c r="AB52" s="79"/>
-      <c r="AC52" s="80"/>
+      <c r="R52" s="155"/>
+      <c r="S52" s="155"/>
+      <c r="T52" s="155"/>
+      <c r="U52" s="155"/>
+      <c r="V52" s="155"/>
+      <c r="W52" s="155"/>
+      <c r="X52" s="155"/>
+      <c r="Y52" s="155"/>
+      <c r="Z52" s="155"/>
+      <c r="AA52" s="155"/>
+      <c r="AB52" s="155"/>
+      <c r="AC52" s="156"/>
     </row>
     <row r="53" spans="1:29">
-      <c r="A53" s="152"/>
-      <c r="B53" s="115"/>
-      <c r="C53" s="158"/>
-      <c r="D53" s="158"/>
-      <c r="E53" s="158"/>
-      <c r="F53" s="158"/>
-      <c r="G53" s="158"/>
-      <c r="H53" s="158"/>
-      <c r="I53" s="158"/>
-      <c r="J53" s="158"/>
-      <c r="K53" s="158"/>
-      <c r="L53" s="158"/>
-      <c r="M53" s="158"/>
-      <c r="N53" s="158"/>
-      <c r="O53" s="158"/>
-      <c r="P53" s="158"/>
-      <c r="Q53" s="158"/>
-      <c r="R53" s="158"/>
-      <c r="S53" s="158"/>
-      <c r="T53" s="158"/>
-      <c r="U53" s="158"/>
-      <c r="V53" s="158"/>
-      <c r="W53" s="158"/>
-      <c r="X53" s="158"/>
-      <c r="Y53" s="158"/>
-      <c r="Z53" s="158"/>
-      <c r="AA53" s="158"/>
-      <c r="AB53" s="158"/>
-      <c r="AC53" s="159"/>
+      <c r="A53" s="76"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="88"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="88"/>
+      <c r="H53" s="88"/>
+      <c r="I53" s="88"/>
+      <c r="J53" s="88"/>
+      <c r="K53" s="88"/>
+      <c r="L53" s="88"/>
+      <c r="M53" s="88"/>
+      <c r="N53" s="88"/>
+      <c r="O53" s="88"/>
+      <c r="P53" s="88"/>
+      <c r="Q53" s="88"/>
+      <c r="R53" s="88"/>
+      <c r="S53" s="88"/>
+      <c r="T53" s="88"/>
+      <c r="U53" s="88"/>
+      <c r="V53" s="88"/>
+      <c r="W53" s="88"/>
+      <c r="X53" s="88"/>
+      <c r="Y53" s="88"/>
+      <c r="Z53" s="88"/>
+      <c r="AA53" s="88"/>
+      <c r="AB53" s="88"/>
+      <c r="AC53" s="89"/>
     </row>
     <row r="54" spans="1:29">
-      <c r="A54" s="152"/>
-      <c r="B54" s="115"/>
-      <c r="C54" s="158"/>
-      <c r="D54" s="158"/>
-      <c r="E54" s="158"/>
-      <c r="F54" s="158"/>
-      <c r="G54" s="158"/>
-      <c r="H54" s="158"/>
-      <c r="I54" s="158"/>
-      <c r="J54" s="158"/>
-      <c r="K54" s="158"/>
-      <c r="L54" s="158"/>
-      <c r="M54" s="158"/>
-      <c r="N54" s="158"/>
-      <c r="O54" s="158"/>
-      <c r="P54" s="158"/>
-      <c r="Q54" s="158"/>
-      <c r="R54" s="158"/>
-      <c r="S54" s="158"/>
-      <c r="T54" s="158"/>
-      <c r="U54" s="158"/>
-      <c r="V54" s="158"/>
-      <c r="W54" s="158"/>
-      <c r="X54" s="158"/>
-      <c r="Y54" s="158"/>
-      <c r="Z54" s="158"/>
-      <c r="AA54" s="158"/>
-      <c r="AB54" s="158"/>
-      <c r="AC54" s="159"/>
+      <c r="A54" s="76"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="88"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="88"/>
+      <c r="H54" s="88"/>
+      <c r="I54" s="88"/>
+      <c r="J54" s="88"/>
+      <c r="K54" s="88"/>
+      <c r="L54" s="88"/>
+      <c r="M54" s="88"/>
+      <c r="N54" s="88"/>
+      <c r="O54" s="88"/>
+      <c r="P54" s="88"/>
+      <c r="Q54" s="88"/>
+      <c r="R54" s="88"/>
+      <c r="S54" s="88"/>
+      <c r="T54" s="88"/>
+      <c r="U54" s="88"/>
+      <c r="V54" s="88"/>
+      <c r="W54" s="88"/>
+      <c r="X54" s="88"/>
+      <c r="Y54" s="88"/>
+      <c r="Z54" s="88"/>
+      <c r="AA54" s="88"/>
+      <c r="AB54" s="88"/>
+      <c r="AC54" s="89"/>
     </row>
     <row r="55" spans="1:29">
-      <c r="A55" s="152"/>
-      <c r="B55" s="115"/>
-      <c r="C55" s="158"/>
-      <c r="D55" s="158"/>
-      <c r="E55" s="158"/>
-      <c r="F55" s="158"/>
-      <c r="G55" s="158"/>
-      <c r="H55" s="158"/>
-      <c r="I55" s="158"/>
-      <c r="J55" s="158"/>
-      <c r="K55" s="158"/>
-      <c r="L55" s="158"/>
-      <c r="M55" s="158"/>
-      <c r="N55" s="158"/>
-      <c r="O55" s="158"/>
-      <c r="P55" s="158"/>
-      <c r="Q55" s="158"/>
-      <c r="R55" s="158"/>
-      <c r="S55" s="158"/>
-      <c r="T55" s="158"/>
-      <c r="U55" s="158"/>
-      <c r="V55" s="158"/>
-      <c r="W55" s="158"/>
-      <c r="X55" s="158"/>
-      <c r="Y55" s="158"/>
-      <c r="Z55" s="158"/>
-      <c r="AA55" s="158"/>
-      <c r="AB55" s="158"/>
-      <c r="AC55" s="159"/>
+      <c r="A55" s="76"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="88"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="88"/>
+      <c r="J55" s="88"/>
+      <c r="K55" s="88"/>
+      <c r="L55" s="88"/>
+      <c r="M55" s="88"/>
+      <c r="N55" s="88"/>
+      <c r="O55" s="88"/>
+      <c r="P55" s="88"/>
+      <c r="Q55" s="88"/>
+      <c r="R55" s="88"/>
+      <c r="S55" s="88"/>
+      <c r="T55" s="88"/>
+      <c r="U55" s="88"/>
+      <c r="V55" s="88"/>
+      <c r="W55" s="88"/>
+      <c r="X55" s="88"/>
+      <c r="Y55" s="88"/>
+      <c r="Z55" s="88"/>
+      <c r="AA55" s="88"/>
+      <c r="AB55" s="88"/>
+      <c r="AC55" s="89"/>
     </row>
     <row r="56" spans="1:29">
-      <c r="A56" s="152"/>
-      <c r="B56" s="115"/>
-      <c r="C56" s="158"/>
-      <c r="D56" s="158"/>
-      <c r="E56" s="158"/>
-      <c r="F56" s="158"/>
-      <c r="G56" s="158"/>
-      <c r="H56" s="158"/>
-      <c r="I56" s="158"/>
-      <c r="J56" s="158"/>
-      <c r="K56" s="158"/>
-      <c r="L56" s="158"/>
-      <c r="M56" s="158"/>
-      <c r="N56" s="158"/>
-      <c r="O56" s="158"/>
-      <c r="P56" s="158"/>
-      <c r="Q56" s="158"/>
-      <c r="R56" s="158"/>
-      <c r="S56" s="158"/>
-      <c r="T56" s="158"/>
-      <c r="U56" s="158"/>
-      <c r="V56" s="158"/>
-      <c r="W56" s="158"/>
-      <c r="X56" s="158"/>
-      <c r="Y56" s="158"/>
-      <c r="Z56" s="158"/>
-      <c r="AA56" s="158"/>
-      <c r="AB56" s="158"/>
-      <c r="AC56" s="159"/>
+      <c r="A56" s="76"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="88"/>
+      <c r="D56" s="88"/>
+      <c r="E56" s="88"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="88"/>
+      <c r="H56" s="88"/>
+      <c r="I56" s="88"/>
+      <c r="J56" s="88"/>
+      <c r="K56" s="88"/>
+      <c r="L56" s="88"/>
+      <c r="M56" s="88"/>
+      <c r="N56" s="88"/>
+      <c r="O56" s="88"/>
+      <c r="P56" s="88"/>
+      <c r="Q56" s="88"/>
+      <c r="R56" s="88"/>
+      <c r="S56" s="88"/>
+      <c r="T56" s="88"/>
+      <c r="U56" s="88"/>
+      <c r="V56" s="88"/>
+      <c r="W56" s="88"/>
+      <c r="X56" s="88"/>
+      <c r="Y56" s="88"/>
+      <c r="Z56" s="88"/>
+      <c r="AA56" s="88"/>
+      <c r="AB56" s="88"/>
+      <c r="AC56" s="89"/>
     </row>
     <row r="57" spans="1:29">
-      <c r="A57" s="148"/>
-      <c r="B57" s="149"/>
-      <c r="C57" s="166"/>
-      <c r="D57" s="166"/>
-      <c r="E57" s="166"/>
-      <c r="F57" s="166"/>
-      <c r="G57" s="166"/>
-      <c r="H57" s="166"/>
-      <c r="I57" s="166"/>
-      <c r="J57" s="166"/>
-      <c r="K57" s="166"/>
-      <c r="L57" s="166"/>
-      <c r="M57" s="166"/>
-      <c r="N57" s="166"/>
-      <c r="O57" s="166"/>
-      <c r="P57" s="166"/>
-      <c r="Q57" s="166"/>
-      <c r="R57" s="166"/>
-      <c r="S57" s="166"/>
-      <c r="T57" s="166"/>
-      <c r="U57" s="166"/>
-      <c r="V57" s="166"/>
-      <c r="W57" s="166"/>
-      <c r="X57" s="166"/>
-      <c r="Y57" s="166"/>
-      <c r="Z57" s="166"/>
-      <c r="AA57" s="166"/>
-      <c r="AB57" s="166"/>
-      <c r="AC57" s="167"/>
+      <c r="A57" s="149"/>
+      <c r="B57" s="150"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="80"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="80"/>
+      <c r="G57" s="80"/>
+      <c r="H57" s="80"/>
+      <c r="I57" s="80"/>
+      <c r="J57" s="80"/>
+      <c r="K57" s="80"/>
+      <c r="L57" s="80"/>
+      <c r="M57" s="80"/>
+      <c r="N57" s="80"/>
+      <c r="O57" s="80"/>
+      <c r="P57" s="80"/>
+      <c r="Q57" s="80"/>
+      <c r="R57" s="80"/>
+      <c r="S57" s="80"/>
+      <c r="T57" s="80"/>
+      <c r="U57" s="80"/>
+      <c r="V57" s="80"/>
+      <c r="W57" s="80"/>
+      <c r="X57" s="80"/>
+      <c r="Y57" s="80"/>
+      <c r="Z57" s="80"/>
+      <c r="AA57" s="80"/>
+      <c r="AB57" s="80"/>
+      <c r="AC57" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="142">
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="F32:P32"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F27:P27"/>
-    <mergeCell ref="F28:P28"/>
-    <mergeCell ref="F29:P29"/>
-    <mergeCell ref="F30:P30"/>
-    <mergeCell ref="F31:P31"/>
-    <mergeCell ref="K19:P20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="W2:AB2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:R2"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="C19:E20"/>
-    <mergeCell ref="F19:J20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="Q45:AC45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:P46"/>
-    <mergeCell ref="Q46:AC46"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:P57"/>
-    <mergeCell ref="Q57:AC57"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:P54"/>
-    <mergeCell ref="Q54:AC54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:P55"/>
-    <mergeCell ref="Q55:AC55"/>
-    <mergeCell ref="Q47:AC47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:P48"/>
-    <mergeCell ref="Q48:AC48"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:P56"/>
-    <mergeCell ref="Q56:AC56"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:P52"/>
-    <mergeCell ref="Q52:AC52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:P53"/>
-    <mergeCell ref="Q53:AC53"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:P49"/>
-    <mergeCell ref="Q49:AC49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:P50"/>
-    <mergeCell ref="Q50:AC50"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="C22:E22"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="F23:H23"/>
@@ -4268,6 +4162,126 @@
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
+    <mergeCell ref="Q47:AC47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:P48"/>
+    <mergeCell ref="Q48:AC48"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:P56"/>
+    <mergeCell ref="Q56:AC56"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:P52"/>
+    <mergeCell ref="Q52:AC52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:P53"/>
+    <mergeCell ref="Q53:AC53"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:P49"/>
+    <mergeCell ref="Q49:AC49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:P50"/>
+    <mergeCell ref="Q50:AC50"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:P57"/>
+    <mergeCell ref="Q57:AC57"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:P54"/>
+    <mergeCell ref="Q54:AC54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:P55"/>
+    <mergeCell ref="Q55:AC55"/>
+    <mergeCell ref="Q45:AC45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:P46"/>
+    <mergeCell ref="Q46:AC46"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="C19:E20"/>
+    <mergeCell ref="F19:J20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="W2:AB2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:R2"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F27:P27"/>
+    <mergeCell ref="F28:P28"/>
+    <mergeCell ref="F29:P29"/>
+    <mergeCell ref="F30:P30"/>
+    <mergeCell ref="F31:P31"/>
+    <mergeCell ref="K19:P20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="F32:P32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="F4:J9 L4:O9">
@@ -4287,7 +4301,10 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0.2" footer="0.2"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="96" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="32" max="16383" man="1"/>
+  </rowBreaks>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/src/main/resources/excel/meetingSheet_1st2term.xlsx
+++ b/src/main/resources/excel/meetingSheet_1st2term.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/MEGAsync/IdeaProjects/student_management_system/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F14287-C773-A149-A1F2-8262D907D319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B6020E-32A7-0D49-864B-BE6E54963BF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="1460" windowWidth="25260" windowHeight="16540" xr2:uid="{B568BDAE-9867-864B-9F86-2CF23C3644F0}"/>
   </bookViews>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1570,7 +1568,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1778,37 +1776,70 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
@@ -1817,7 +1848,169 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1834,105 +2027,21 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1940,151 +2049,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2425,7 +2426,7 @@
   <dimension ref="A1:AC57"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C21" sqref="C21:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2442,86 +2443,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
       <c r="S1" s="3"/>
-      <c r="T1" s="105" t="s">
+      <c r="T1" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="105" t="s">
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="106"/>
-      <c r="AB1" s="106"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="132"/>
+      <c r="AB1" s="132"/>
       <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="25" customHeight="1">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
       <c r="S2" s="6"/>
-      <c r="T2" s="169" t="s">
+      <c r="T2" s="145" t="s">
         <v>69</v>
       </c>
-      <c r="U2" s="170"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="147"/>
+      <c r="W2" s="127"/>
+      <c r="X2" s="127"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
       <c r="AC2" s="7"/>
     </row>
     <row r="3" spans="1:29" ht="18" customHeight="1">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="D3" s="109" t="s">
+      <c r="B3" s="134"/>
+      <c r="D3" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="110"/>
+      <c r="E3" s="136"/>
       <c r="F3" s="14" t="s">
         <v>12</v>
       </c>
@@ -2594,17 +2595,17 @@
       </c>
     </row>
     <row r="4" spans="1:29" ht="18" customHeight="1">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="120" t="str" cm="1">
+      <c r="B4" s="96" t="str" cm="1">
         <f t="array" ref="B4">IFERROR(_xlfn.IFS(P9&gt;9,P9*2+P7,P8&gt;9,P8*2+P7,P7&gt;9,P7*3,P6&gt;9,P6*3,P5&gt;9,P5*3,P4&gt;9,P4*3),"")</f>
         <v/>
       </c>
-      <c r="D4" s="111" t="s">
+      <c r="D4" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="112"/>
+      <c r="E4" s="138"/>
       <c r="F4" s="18"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -2632,12 +2633,12 @@
       <c r="AC4" s="42"/>
     </row>
     <row r="5" spans="1:29" ht="18" customHeight="1">
-      <c r="A5" s="117"/>
-      <c r="B5" s="120"/>
-      <c r="D5" s="113" t="s">
+      <c r="A5" s="126"/>
+      <c r="B5" s="96"/>
+      <c r="D5" s="139" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="114"/>
+      <c r="E5" s="140"/>
       <c r="F5" s="21"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -2665,17 +2666,17 @@
       <c r="AC5" s="42"/>
     </row>
     <row r="6" spans="1:29" ht="18" customHeight="1">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="120" t="str" cm="1">
+      <c r="B6" s="96" t="str" cm="1">
         <f t="array" ref="B6">IFERROR(_xlfn.IFS(P9&gt;9,P9,P8&gt;9,P8,P7&gt;9,P7,P6&gt;9,P6,P5&gt;9,P5,P4&gt;9,P4),"")</f>
         <v/>
       </c>
-      <c r="D6" s="115" t="s">
+      <c r="D6" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="116"/>
+      <c r="E6" s="142"/>
       <c r="F6" s="25"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
@@ -2703,12 +2704,12 @@
       <c r="AC6" s="42"/>
     </row>
     <row r="7" spans="1:29" ht="18" customHeight="1">
-      <c r="A7" s="117"/>
-      <c r="B7" s="120"/>
-      <c r="D7" s="118" t="s">
+      <c r="A7" s="126"/>
+      <c r="B7" s="96"/>
+      <c r="D7" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="119"/>
+      <c r="E7" s="144"/>
       <c r="F7" s="29"/>
       <c r="G7" s="30"/>
       <c r="H7" s="30"/>
@@ -2736,17 +2737,17 @@
       <c r="AC7" s="45"/>
     </row>
     <row r="8" spans="1:29" ht="18" customHeight="1">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="120" t="str" cm="1">
+      <c r="B8" s="96" t="str" cm="1">
         <f t="array" ref="B8">IFERROR(_xlfn.IFS(K9&gt;9,K9+K7,K8&gt;9,K8+K7,K7&gt;9,K7*2,K6&gt;0,K6*2,K5&gt;0,K5*2,K4&gt;0,K4*2),"")</f>
         <v/>
       </c>
-      <c r="D8" s="141" t="s">
+      <c r="D8" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="142"/>
+      <c r="E8" s="121"/>
       <c r="F8" s="33"/>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
@@ -2774,12 +2775,12 @@
       <c r="AC8" s="63"/>
     </row>
     <row r="9" spans="1:29" ht="18" customHeight="1">
-      <c r="A9" s="117"/>
-      <c r="B9" s="120"/>
-      <c r="D9" s="143" t="s">
+      <c r="A9" s="126"/>
+      <c r="B9" s="96"/>
+      <c r="D9" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="144"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="29"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
@@ -2807,10 +2808,10 @@
       <c r="AC9" s="42"/>
     </row>
     <row r="10" spans="1:29" ht="18" customHeight="1">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="120" t="str" cm="1">
+      <c r="B10" s="96" t="str" cm="1">
         <f t="array" ref="B10">IFERROR(_xlfn.IFS(K9&gt;0,K9,K8&gt;0,K8,K7&gt;0,K7,K6&gt;0,K6,K5&gt;0,K5,K4&gt;0,K4),"")</f>
         <v/>
       </c>
@@ -2843,12 +2844,12 @@
       <c r="AC10" s="42"/>
     </row>
     <row r="11" spans="1:29" ht="18" customHeight="1">
-      <c r="A11" s="117"/>
-      <c r="B11" s="120"/>
-      <c r="D11" s="73" t="s">
+      <c r="A11" s="126"/>
+      <c r="B11" s="96"/>
+      <c r="D11" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="74"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="43" t="s">
         <v>12</v>
       </c>
@@ -2898,17 +2899,17 @@
       <c r="AC11" s="45"/>
     </row>
     <row r="12" spans="1:29" ht="18" customHeight="1">
-      <c r="A12" s="145" t="s">
+      <c r="A12" s="160" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="123" t="str">
-        <f>IFERROR(LOOKUP(10^10,N12:N15),"")</f>
-        <v/>
-      </c>
-      <c r="D12" s="83" t="s">
+      <c r="B12" s="97" t="str">
+        <f>IFERROR(LOOKUP(10^10,N12:N15),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D12" s="148" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="84"/>
+      <c r="E12" s="149"/>
       <c r="F12" s="18"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2945,12 +2946,12 @@
       <c r="AC12" s="64"/>
     </row>
     <row r="13" spans="1:29" ht="18" customHeight="1">
-      <c r="A13" s="145"/>
-      <c r="B13" s="124"/>
-      <c r="D13" s="83" t="s">
+      <c r="A13" s="160"/>
+      <c r="B13" s="98"/>
+      <c r="D13" s="148" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="84"/>
+      <c r="E13" s="149"/>
       <c r="F13" s="18"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -2987,17 +2988,17 @@
       <c r="AC13" s="42"/>
     </row>
     <row r="14" spans="1:29" ht="18" customHeight="1">
-      <c r="A14" s="121" t="s">
+      <c r="A14" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="123" t="str">
-        <f>IFERROR(LOOKUP(10^10,O12:O15),"")</f>
-        <v/>
-      </c>
-      <c r="D14" s="83" t="s">
+      <c r="B14" s="97" t="str">
+        <f>IFERROR(LOOKUP(10^10,O12:O15),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D14" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="84"/>
+      <c r="E14" s="149"/>
       <c r="F14" s="18"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -3034,12 +3035,12 @@
       <c r="AC14" s="45"/>
     </row>
     <row r="15" spans="1:29" ht="18" customHeight="1">
-      <c r="A15" s="146"/>
-      <c r="B15" s="124"/>
-      <c r="D15" s="85" t="s">
+      <c r="A15" s="161"/>
+      <c r="B15" s="98"/>
+      <c r="D15" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="86"/>
+      <c r="E15" s="151"/>
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
@@ -3074,12 +3075,12 @@
       <c r="AC15" s="4"/>
     </row>
     <row r="16" spans="1:29" ht="18" customHeight="1">
-      <c r="A16" s="121" t="s">
+      <c r="A16" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="123" t="str">
-        <f>IFERROR(LOOKUP(10^10,P12:P15),"")</f>
-        <v/>
+      <c r="B16" s="97" t="str">
+        <f>IFERROR(LOOKUP(10^10,P12:P15),"-")</f>
+        <v>-</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -3110,8 +3111,8 @@
       <c r="AC16" s="51"/>
     </row>
     <row r="17" spans="1:29" ht="18" customHeight="1">
-      <c r="A17" s="122"/>
-      <c r="B17" s="125"/>
+      <c r="A17" s="159"/>
+      <c r="B17" s="99"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -3155,30 +3156,30 @@
       <c r="AC18" s="53"/>
     </row>
     <row r="19" spans="1:29" ht="18" customHeight="1">
-      <c r="A19" s="126" t="s">
+      <c r="A19" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="127"/>
-      <c r="C19" s="131" t="s">
+      <c r="B19" s="101"/>
+      <c r="C19" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="91"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="134" t="s">
+      <c r="D19" s="111"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="134"/>
-      <c r="H19" s="134"/>
-      <c r="I19" s="134"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="90" t="s">
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="91"/>
-      <c r="P19" s="92"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="154"/>
       <c r="R19" s="55"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -3193,22 +3194,22 @@
       <c r="AC19" s="53"/>
     </row>
     <row r="20" spans="1:29" ht="20" customHeight="1">
-      <c r="A20" s="128"/>
-      <c r="B20" s="129"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="95"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="155"/>
       <c r="R20" s="54"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
@@ -3223,28 +3224,28 @@
       <c r="AC20" s="53"/>
     </row>
     <row r="21" spans="1:29" ht="19" customHeight="1">
-      <c r="A21" s="130"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="138"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="157" t="str">
+      <c r="A21" s="108"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="167"/>
+      <c r="D21" s="168"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="156" t="str">
         <f>IF(I21="","","９科目合計：")</f>
         <v/>
       </c>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="98" t="str">
+      <c r="G21" s="157"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="104" t="str">
         <f>IF(O21="","","５科目合計：")</f>
         <v/>
       </c>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="100"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="106"/>
+      <c r="P21" s="107"/>
       <c r="R21" s="54"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -3259,28 +3260,28 @@
       <c r="AC21" s="53"/>
     </row>
     <row r="22" spans="1:29" ht="19" customHeight="1">
-      <c r="A22" s="130"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="157" t="str">
+      <c r="A22" s="108"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="156" t="str">
         <f>IF(I22="","","９科目合計：")</f>
         <v/>
       </c>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="98" t="str">
+      <c r="G22" s="157"/>
+      <c r="H22" s="157"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="104" t="str">
         <f>IF(O22="","","５科目合計：")</f>
         <v/>
       </c>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="100"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="105"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="107"/>
       <c r="R22" s="54"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
@@ -3295,28 +3296,28 @@
       <c r="AC22" s="53"/>
     </row>
     <row r="23" spans="1:29" ht="18" customHeight="1">
-      <c r="A23" s="130"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="157" t="str">
+      <c r="A23" s="108"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="156" t="str">
         <f t="shared" ref="F23:F25" si="3">IF(I23="","","９科目合計：")</f>
         <v/>
       </c>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="98" t="str">
+      <c r="G23" s="157"/>
+      <c r="H23" s="157"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="104" t="str">
         <f>IF(O23="","","５科目合計：")</f>
         <v/>
       </c>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="100"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="106"/>
+      <c r="P23" s="107"/>
       <c r="R23" s="54"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
@@ -3331,31 +3332,31 @@
       <c r="AC23" s="53"/>
     </row>
     <row r="24" spans="1:29" ht="18" customHeight="1">
-      <c r="A24" s="130"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="157" t="str">
+      <c r="A24" s="108"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="167" t="str">
         <f>IF(I24="","","９科目合計：")</f>
         <v/>
       </c>
-      <c r="D24" s="158"/>
-      <c r="E24" s="159"/>
-      <c r="F24" s="157" t="str">
+      <c r="D24" s="168"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="156" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="98" t="str">
+      <c r="G24" s="157"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="104" t="str">
         <f>IF(O24="","","５科目合計：")</f>
         <v/>
       </c>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="100"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="107"/>
       <c r="R24" s="54"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
@@ -3370,31 +3371,31 @@
       <c r="AC24" s="53"/>
     </row>
     <row r="25" spans="1:29" ht="18" customHeight="1">
-      <c r="A25" s="163"/>
-      <c r="B25" s="164"/>
-      <c r="C25" s="165" t="str">
+      <c r="A25" s="77"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="170" t="str">
         <f>IF(I25="","","９科目合計：")</f>
         <v/>
       </c>
-      <c r="D25" s="166"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="165" t="str">
+      <c r="D25" s="171"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="79" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G25" s="166"/>
-      <c r="H25" s="166"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="160"/>
-      <c r="K25" s="161" t="str">
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="75" t="str">
         <f>IF(O25="","","５科目合計：")</f>
         <v/>
       </c>
-      <c r="L25" s="162"/>
-      <c r="M25" s="162"/>
-      <c r="N25" s="162"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="70"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="163"/>
       <c r="R25" s="54"/>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
@@ -3423,28 +3424,28 @@
       <c r="AC26" s="53"/>
     </row>
     <row r="27" spans="1:29" ht="19" customHeight="1">
-      <c r="A27" s="73" t="s">
+      <c r="A27" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74" t="s">
+      <c r="B27" s="125"/>
+      <c r="C27" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74" t="s">
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="87"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="125"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="125"/>
+      <c r="O27" s="125"/>
+      <c r="P27" s="152"/>
       <c r="R27" s="54"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
@@ -3459,22 +3460,22 @@
       <c r="AC27" s="53"/>
     </row>
     <row r="28" spans="1:29" ht="18" customHeight="1">
-      <c r="A28" s="76"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="168"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="88"/>
-      <c r="P28" s="89"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="85"/>
       <c r="R28" s="54"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
@@ -3489,22 +3490,22 @@
       <c r="AC28" s="53"/>
     </row>
     <row r="29" spans="1:29" ht="18" customHeight="1">
-      <c r="A29" s="76"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="168"/>
-      <c r="D29" s="168"/>
-      <c r="E29" s="168"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="88"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="88"/>
-      <c r="P29" s="89"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="85"/>
       <c r="R29" s="54"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
@@ -3519,22 +3520,22 @@
       <c r="AC29" s="53"/>
     </row>
     <row r="30" spans="1:29" ht="18" customHeight="1">
-      <c r="A30" s="76"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="88"/>
-      <c r="M30" s="88"/>
-      <c r="N30" s="88"/>
-      <c r="O30" s="88"/>
-      <c r="P30" s="89"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="85"/>
       <c r="R30" s="54"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
@@ -3549,22 +3550,22 @@
       <c r="AC30" s="53"/>
     </row>
     <row r="31" spans="1:29" ht="18" customHeight="1">
-      <c r="A31" s="76"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="168"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="168"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="88"/>
-      <c r="M31" s="88"/>
-      <c r="N31" s="88"/>
-      <c r="O31" s="88"/>
-      <c r="P31" s="89"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="84"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="85"/>
       <c r="R31" s="54"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
@@ -3579,22 +3580,22 @@
       <c r="AC31" s="53"/>
     </row>
     <row r="32" spans="1:29" ht="18" customHeight="1">
-      <c r="A32" s="149"/>
-      <c r="B32" s="150"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="80"/>
-      <c r="M32" s="80"/>
-      <c r="N32" s="80"/>
-      <c r="O32" s="80"/>
-      <c r="P32" s="81"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="162"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="91"/>
+      <c r="N32" s="91"/>
+      <c r="O32" s="91"/>
+      <c r="P32" s="92"/>
       <c r="R32" s="56"/>
       <c r="S32" s="57"/>
       <c r="T32" s="57"/>
@@ -3615,125 +3616,125 @@
       </c>
     </row>
     <row r="35" spans="1:29">
-      <c r="A35" s="71" t="s">
+      <c r="A35" s="164" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72" t="s">
+      <c r="B35" s="165"/>
+      <c r="C35" s="165" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72" t="s">
+      <c r="D35" s="165"/>
+      <c r="E35" s="165"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="75"/>
+      <c r="I35" s="165"/>
+      <c r="J35" s="165"/>
+      <c r="K35" s="166"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
     </row>
     <row r="36" spans="1:29">
-      <c r="A36" s="76"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="79"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="72"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
     </row>
     <row r="37" spans="1:29">
-      <c r="A37" s="76"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="79"/>
+      <c r="A37" s="69"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="72"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
     </row>
     <row r="38" spans="1:29">
-      <c r="A38" s="76"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="78"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="79"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="72"/>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
     </row>
     <row r="39" spans="1:29">
-      <c r="A39" s="76"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="79"/>
+      <c r="A39" s="69"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="72"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
     </row>
     <row r="40" spans="1:29">
-      <c r="A40" s="76"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="79"/>
+      <c r="A40" s="69"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="72"/>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
     </row>
     <row r="41" spans="1:29">
-      <c r="A41" s="149"/>
-      <c r="B41" s="150"/>
-      <c r="C41" s="151"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="152"/>
+      <c r="A41" s="81"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="94"/>
+      <c r="H41" s="94"/>
+      <c r="I41" s="94"/>
+      <c r="J41" s="94"/>
+      <c r="K41" s="95"/>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
@@ -3750,196 +3751,196 @@
       </c>
     </row>
     <row r="45" spans="1:29">
-      <c r="A45" s="153" t="s">
+      <c r="A45" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="147"/>
-      <c r="C45" s="147" t="s">
+      <c r="B45" s="87"/>
+      <c r="C45" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="D45" s="147"/>
-      <c r="E45" s="147"/>
-      <c r="F45" s="147"/>
-      <c r="G45" s="147"/>
-      <c r="H45" s="147"/>
-      <c r="I45" s="147"/>
-      <c r="J45" s="147"/>
-      <c r="K45" s="147"/>
-      <c r="L45" s="147"/>
-      <c r="M45" s="147"/>
-      <c r="N45" s="147"/>
-      <c r="O45" s="147"/>
-      <c r="P45" s="147"/>
-      <c r="Q45" s="147" t="s">
+      <c r="D45" s="87"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="87"/>
+      <c r="I45" s="87"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="87"/>
+      <c r="M45" s="87"/>
+      <c r="N45" s="87"/>
+      <c r="O45" s="87"/>
+      <c r="P45" s="87"/>
+      <c r="Q45" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="R45" s="147"/>
-      <c r="S45" s="147"/>
-      <c r="T45" s="147"/>
-      <c r="U45" s="147"/>
-      <c r="V45" s="147"/>
-      <c r="W45" s="147"/>
-      <c r="X45" s="147"/>
-      <c r="Y45" s="147"/>
-      <c r="Z45" s="147"/>
-      <c r="AA45" s="147"/>
-      <c r="AB45" s="147"/>
-      <c r="AC45" s="148"/>
+      <c r="R45" s="87"/>
+      <c r="S45" s="87"/>
+      <c r="T45" s="87"/>
+      <c r="U45" s="87"/>
+      <c r="V45" s="87"/>
+      <c r="W45" s="87"/>
+      <c r="X45" s="87"/>
+      <c r="Y45" s="87"/>
+      <c r="Z45" s="87"/>
+      <c r="AA45" s="87"/>
+      <c r="AB45" s="87"/>
+      <c r="AC45" s="93"/>
     </row>
     <row r="46" spans="1:29">
-      <c r="A46" s="76"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="88"/>
-      <c r="K46" s="88"/>
-      <c r="L46" s="88"/>
-      <c r="M46" s="88"/>
-      <c r="N46" s="88"/>
-      <c r="O46" s="88"/>
-      <c r="P46" s="88"/>
-      <c r="Q46" s="88"/>
-      <c r="R46" s="88"/>
-      <c r="S46" s="88"/>
-      <c r="T46" s="88"/>
-      <c r="U46" s="88"/>
-      <c r="V46" s="88"/>
-      <c r="W46" s="88"/>
-      <c r="X46" s="88"/>
-      <c r="Y46" s="88"/>
-      <c r="Z46" s="88"/>
-      <c r="AA46" s="88"/>
-      <c r="AB46" s="88"/>
-      <c r="AC46" s="89"/>
+      <c r="A46" s="69"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="84"/>
+      <c r="H46" s="84"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="84"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="84"/>
+      <c r="M46" s="84"/>
+      <c r="N46" s="84"/>
+      <c r="O46" s="84"/>
+      <c r="P46" s="84"/>
+      <c r="Q46" s="84"/>
+      <c r="R46" s="84"/>
+      <c r="S46" s="84"/>
+      <c r="T46" s="84"/>
+      <c r="U46" s="84"/>
+      <c r="V46" s="84"/>
+      <c r="W46" s="84"/>
+      <c r="X46" s="84"/>
+      <c r="Y46" s="84"/>
+      <c r="Z46" s="84"/>
+      <c r="AA46" s="84"/>
+      <c r="AB46" s="84"/>
+      <c r="AC46" s="85"/>
     </row>
     <row r="47" spans="1:29">
-      <c r="A47" s="76"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="88"/>
-      <c r="K47" s="88"/>
-      <c r="L47" s="88"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="88"/>
-      <c r="P47" s="88"/>
-      <c r="Q47" s="88"/>
-      <c r="R47" s="88"/>
-      <c r="S47" s="88"/>
-      <c r="T47" s="88"/>
-      <c r="U47" s="88"/>
-      <c r="V47" s="88"/>
-      <c r="W47" s="88"/>
-      <c r="X47" s="88"/>
-      <c r="Y47" s="88"/>
-      <c r="Z47" s="88"/>
-      <c r="AA47" s="88"/>
-      <c r="AB47" s="88"/>
-      <c r="AC47" s="89"/>
+      <c r="A47" s="69"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="84"/>
+      <c r="K47" s="84"/>
+      <c r="L47" s="84"/>
+      <c r="M47" s="84"/>
+      <c r="N47" s="84"/>
+      <c r="O47" s="84"/>
+      <c r="P47" s="84"/>
+      <c r="Q47" s="84"/>
+      <c r="R47" s="84"/>
+      <c r="S47" s="84"/>
+      <c r="T47" s="84"/>
+      <c r="U47" s="84"/>
+      <c r="V47" s="84"/>
+      <c r="W47" s="84"/>
+      <c r="X47" s="84"/>
+      <c r="Y47" s="84"/>
+      <c r="Z47" s="84"/>
+      <c r="AA47" s="84"/>
+      <c r="AB47" s="84"/>
+      <c r="AC47" s="85"/>
     </row>
     <row r="48" spans="1:29">
-      <c r="A48" s="76"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="88"/>
-      <c r="J48" s="88"/>
-      <c r="K48" s="88"/>
-      <c r="L48" s="88"/>
-      <c r="M48" s="88"/>
-      <c r="N48" s="88"/>
-      <c r="O48" s="88"/>
-      <c r="P48" s="88"/>
-      <c r="Q48" s="88"/>
-      <c r="R48" s="88"/>
-      <c r="S48" s="88"/>
-      <c r="T48" s="88"/>
-      <c r="U48" s="88"/>
-      <c r="V48" s="88"/>
-      <c r="W48" s="88"/>
-      <c r="X48" s="88"/>
-      <c r="Y48" s="88"/>
-      <c r="Z48" s="88"/>
-      <c r="AA48" s="88"/>
-      <c r="AB48" s="88"/>
-      <c r="AC48" s="89"/>
+      <c r="A48" s="69"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="84"/>
+      <c r="H48" s="84"/>
+      <c r="I48" s="84"/>
+      <c r="J48" s="84"/>
+      <c r="K48" s="84"/>
+      <c r="L48" s="84"/>
+      <c r="M48" s="84"/>
+      <c r="N48" s="84"/>
+      <c r="O48" s="84"/>
+      <c r="P48" s="84"/>
+      <c r="Q48" s="84"/>
+      <c r="R48" s="84"/>
+      <c r="S48" s="84"/>
+      <c r="T48" s="84"/>
+      <c r="U48" s="84"/>
+      <c r="V48" s="84"/>
+      <c r="W48" s="84"/>
+      <c r="X48" s="84"/>
+      <c r="Y48" s="84"/>
+      <c r="Z48" s="84"/>
+      <c r="AA48" s="84"/>
+      <c r="AB48" s="84"/>
+      <c r="AC48" s="85"/>
     </row>
     <row r="49" spans="1:29">
-      <c r="A49" s="76"/>
-      <c r="B49" s="77"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="88"/>
-      <c r="K49" s="88"/>
-      <c r="L49" s="88"/>
-      <c r="M49" s="88"/>
-      <c r="N49" s="88"/>
-      <c r="O49" s="88"/>
-      <c r="P49" s="88"/>
-      <c r="Q49" s="88"/>
-      <c r="R49" s="88"/>
-      <c r="S49" s="88"/>
-      <c r="T49" s="88"/>
-      <c r="U49" s="88"/>
-      <c r="V49" s="88"/>
-      <c r="W49" s="88"/>
-      <c r="X49" s="88"/>
-      <c r="Y49" s="88"/>
-      <c r="Z49" s="88"/>
-      <c r="AA49" s="88"/>
-      <c r="AB49" s="88"/>
-      <c r="AC49" s="89"/>
+      <c r="A49" s="69"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="84"/>
+      <c r="L49" s="84"/>
+      <c r="M49" s="84"/>
+      <c r="N49" s="84"/>
+      <c r="O49" s="84"/>
+      <c r="P49" s="84"/>
+      <c r="Q49" s="84"/>
+      <c r="R49" s="84"/>
+      <c r="S49" s="84"/>
+      <c r="T49" s="84"/>
+      <c r="U49" s="84"/>
+      <c r="V49" s="84"/>
+      <c r="W49" s="84"/>
+      <c r="X49" s="84"/>
+      <c r="Y49" s="84"/>
+      <c r="Z49" s="84"/>
+      <c r="AA49" s="84"/>
+      <c r="AB49" s="84"/>
+      <c r="AC49" s="85"/>
     </row>
     <row r="50" spans="1:29">
-      <c r="A50" s="149"/>
-      <c r="B50" s="150"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="80"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="80"/>
-      <c r="J50" s="80"/>
-      <c r="K50" s="80"/>
-      <c r="L50" s="80"/>
-      <c r="M50" s="80"/>
-      <c r="N50" s="80"/>
-      <c r="O50" s="80"/>
-      <c r="P50" s="80"/>
-      <c r="Q50" s="80"/>
-      <c r="R50" s="80"/>
-      <c r="S50" s="80"/>
-      <c r="T50" s="80"/>
-      <c r="U50" s="80"/>
-      <c r="V50" s="80"/>
-      <c r="W50" s="80"/>
-      <c r="X50" s="80"/>
-      <c r="Y50" s="80"/>
-      <c r="Z50" s="80"/>
-      <c r="AA50" s="80"/>
-      <c r="AB50" s="80"/>
-      <c r="AC50" s="81"/>
+      <c r="A50" s="81"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="91"/>
+      <c r="F50" s="91"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="91"/>
+      <c r="I50" s="91"/>
+      <c r="J50" s="91"/>
+      <c r="K50" s="91"/>
+      <c r="L50" s="91"/>
+      <c r="M50" s="91"/>
+      <c r="N50" s="91"/>
+      <c r="O50" s="91"/>
+      <c r="P50" s="91"/>
+      <c r="Q50" s="91"/>
+      <c r="R50" s="91"/>
+      <c r="S50" s="91"/>
+      <c r="T50" s="91"/>
+      <c r="U50" s="91"/>
+      <c r="V50" s="91"/>
+      <c r="W50" s="91"/>
+      <c r="X50" s="91"/>
+      <c r="Y50" s="91"/>
+      <c r="Z50" s="91"/>
+      <c r="AA50" s="91"/>
+      <c r="AB50" s="91"/>
+      <c r="AC50" s="92"/>
     </row>
     <row r="51" spans="1:29">
       <c r="A51" s="9" t="s">
@@ -3947,259 +3948,259 @@
       </c>
     </row>
     <row r="52" spans="1:29">
-      <c r="A52" s="153" t="s">
+      <c r="A52" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="147"/>
-      <c r="C52" s="147" t="s">
+      <c r="B52" s="87"/>
+      <c r="C52" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="147"/>
-      <c r="E52" s="147"/>
-      <c r="F52" s="147"/>
-      <c r="G52" s="147"/>
-      <c r="H52" s="147"/>
-      <c r="I52" s="147"/>
-      <c r="J52" s="147"/>
-      <c r="K52" s="147"/>
-      <c r="L52" s="147"/>
-      <c r="M52" s="147"/>
-      <c r="N52" s="147"/>
-      <c r="O52" s="147"/>
-      <c r="P52" s="147"/>
-      <c r="Q52" s="154" t="s">
+      <c r="D52" s="87"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="87"/>
+      <c r="G52" s="87"/>
+      <c r="H52" s="87"/>
+      <c r="I52" s="87"/>
+      <c r="J52" s="87"/>
+      <c r="K52" s="87"/>
+      <c r="L52" s="87"/>
+      <c r="M52" s="87"/>
+      <c r="N52" s="87"/>
+      <c r="O52" s="87"/>
+      <c r="P52" s="87"/>
+      <c r="Q52" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="R52" s="155"/>
-      <c r="S52" s="155"/>
-      <c r="T52" s="155"/>
-      <c r="U52" s="155"/>
-      <c r="V52" s="155"/>
-      <c r="W52" s="155"/>
-      <c r="X52" s="155"/>
-      <c r="Y52" s="155"/>
-      <c r="Z52" s="155"/>
-      <c r="AA52" s="155"/>
-      <c r="AB52" s="155"/>
-      <c r="AC52" s="156"/>
+      <c r="R52" s="89"/>
+      <c r="S52" s="89"/>
+      <c r="T52" s="89"/>
+      <c r="U52" s="89"/>
+      <c r="V52" s="89"/>
+      <c r="W52" s="89"/>
+      <c r="X52" s="89"/>
+      <c r="Y52" s="89"/>
+      <c r="Z52" s="89"/>
+      <c r="AA52" s="89"/>
+      <c r="AB52" s="89"/>
+      <c r="AC52" s="90"/>
     </row>
     <row r="53" spans="1:29">
-      <c r="A53" s="76"/>
-      <c r="B53" s="77"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="88"/>
-      <c r="E53" s="88"/>
-      <c r="F53" s="88"/>
-      <c r="G53" s="88"/>
-      <c r="H53" s="88"/>
-      <c r="I53" s="88"/>
-      <c r="J53" s="88"/>
-      <c r="K53" s="88"/>
-      <c r="L53" s="88"/>
-      <c r="M53" s="88"/>
-      <c r="N53" s="88"/>
-      <c r="O53" s="88"/>
-      <c r="P53" s="88"/>
-      <c r="Q53" s="88"/>
-      <c r="R53" s="88"/>
-      <c r="S53" s="88"/>
-      <c r="T53" s="88"/>
-      <c r="U53" s="88"/>
-      <c r="V53" s="88"/>
-      <c r="W53" s="88"/>
-      <c r="X53" s="88"/>
-      <c r="Y53" s="88"/>
-      <c r="Z53" s="88"/>
-      <c r="AA53" s="88"/>
-      <c r="AB53" s="88"/>
-      <c r="AC53" s="89"/>
+      <c r="A53" s="69"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="84"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="84"/>
+      <c r="K53" s="84"/>
+      <c r="L53" s="84"/>
+      <c r="M53" s="84"/>
+      <c r="N53" s="84"/>
+      <c r="O53" s="84"/>
+      <c r="P53" s="84"/>
+      <c r="Q53" s="84"/>
+      <c r="R53" s="84"/>
+      <c r="S53" s="84"/>
+      <c r="T53" s="84"/>
+      <c r="U53" s="84"/>
+      <c r="V53" s="84"/>
+      <c r="W53" s="84"/>
+      <c r="X53" s="84"/>
+      <c r="Y53" s="84"/>
+      <c r="Z53" s="84"/>
+      <c r="AA53" s="84"/>
+      <c r="AB53" s="84"/>
+      <c r="AC53" s="85"/>
     </row>
     <row r="54" spans="1:29">
-      <c r="A54" s="76"/>
-      <c r="B54" s="77"/>
-      <c r="C54" s="88"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="88"/>
-      <c r="G54" s="88"/>
-      <c r="H54" s="88"/>
-      <c r="I54" s="88"/>
-      <c r="J54" s="88"/>
-      <c r="K54" s="88"/>
-      <c r="L54" s="88"/>
-      <c r="M54" s="88"/>
-      <c r="N54" s="88"/>
-      <c r="O54" s="88"/>
-      <c r="P54" s="88"/>
-      <c r="Q54" s="88"/>
-      <c r="R54" s="88"/>
-      <c r="S54" s="88"/>
-      <c r="T54" s="88"/>
-      <c r="U54" s="88"/>
-      <c r="V54" s="88"/>
-      <c r="W54" s="88"/>
-      <c r="X54" s="88"/>
-      <c r="Y54" s="88"/>
-      <c r="Z54" s="88"/>
-      <c r="AA54" s="88"/>
-      <c r="AB54" s="88"/>
-      <c r="AC54" s="89"/>
+      <c r="A54" s="69"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="84"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="84"/>
+      <c r="J54" s="84"/>
+      <c r="K54" s="84"/>
+      <c r="L54" s="84"/>
+      <c r="M54" s="84"/>
+      <c r="N54" s="84"/>
+      <c r="O54" s="84"/>
+      <c r="P54" s="84"/>
+      <c r="Q54" s="84"/>
+      <c r="R54" s="84"/>
+      <c r="S54" s="84"/>
+      <c r="T54" s="84"/>
+      <c r="U54" s="84"/>
+      <c r="V54" s="84"/>
+      <c r="W54" s="84"/>
+      <c r="X54" s="84"/>
+      <c r="Y54" s="84"/>
+      <c r="Z54" s="84"/>
+      <c r="AA54" s="84"/>
+      <c r="AB54" s="84"/>
+      <c r="AC54" s="85"/>
     </row>
     <row r="55" spans="1:29">
-      <c r="A55" s="76"/>
-      <c r="B55" s="77"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="88"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="88"/>
-      <c r="G55" s="88"/>
-      <c r="H55" s="88"/>
-      <c r="I55" s="88"/>
-      <c r="J55" s="88"/>
-      <c r="K55" s="88"/>
-      <c r="L55" s="88"/>
-      <c r="M55" s="88"/>
-      <c r="N55" s="88"/>
-      <c r="O55" s="88"/>
-      <c r="P55" s="88"/>
-      <c r="Q55" s="88"/>
-      <c r="R55" s="88"/>
-      <c r="S55" s="88"/>
-      <c r="T55" s="88"/>
-      <c r="U55" s="88"/>
-      <c r="V55" s="88"/>
-      <c r="W55" s="88"/>
-      <c r="X55" s="88"/>
-      <c r="Y55" s="88"/>
-      <c r="Z55" s="88"/>
-      <c r="AA55" s="88"/>
-      <c r="AB55" s="88"/>
-      <c r="AC55" s="89"/>
+      <c r="A55" s="69"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="84"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="84"/>
+      <c r="J55" s="84"/>
+      <c r="K55" s="84"/>
+      <c r="L55" s="84"/>
+      <c r="M55" s="84"/>
+      <c r="N55" s="84"/>
+      <c r="O55" s="84"/>
+      <c r="P55" s="84"/>
+      <c r="Q55" s="84"/>
+      <c r="R55" s="84"/>
+      <c r="S55" s="84"/>
+      <c r="T55" s="84"/>
+      <c r="U55" s="84"/>
+      <c r="V55" s="84"/>
+      <c r="W55" s="84"/>
+      <c r="X55" s="84"/>
+      <c r="Y55" s="84"/>
+      <c r="Z55" s="84"/>
+      <c r="AA55" s="84"/>
+      <c r="AB55" s="84"/>
+      <c r="AC55" s="85"/>
     </row>
     <row r="56" spans="1:29">
-      <c r="A56" s="76"/>
-      <c r="B56" s="77"/>
-      <c r="C56" s="88"/>
-      <c r="D56" s="88"/>
-      <c r="E56" s="88"/>
-      <c r="F56" s="88"/>
-      <c r="G56" s="88"/>
-      <c r="H56" s="88"/>
-      <c r="I56" s="88"/>
-      <c r="J56" s="88"/>
-      <c r="K56" s="88"/>
-      <c r="L56" s="88"/>
-      <c r="M56" s="88"/>
-      <c r="N56" s="88"/>
-      <c r="O56" s="88"/>
-      <c r="P56" s="88"/>
-      <c r="Q56" s="88"/>
-      <c r="R56" s="88"/>
-      <c r="S56" s="88"/>
-      <c r="T56" s="88"/>
-      <c r="U56" s="88"/>
-      <c r="V56" s="88"/>
-      <c r="W56" s="88"/>
-      <c r="X56" s="88"/>
-      <c r="Y56" s="88"/>
-      <c r="Z56" s="88"/>
-      <c r="AA56" s="88"/>
-      <c r="AB56" s="88"/>
-      <c r="AC56" s="89"/>
+      <c r="A56" s="69"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="84"/>
+      <c r="H56" s="84"/>
+      <c r="I56" s="84"/>
+      <c r="J56" s="84"/>
+      <c r="K56" s="84"/>
+      <c r="L56" s="84"/>
+      <c r="M56" s="84"/>
+      <c r="N56" s="84"/>
+      <c r="O56" s="84"/>
+      <c r="P56" s="84"/>
+      <c r="Q56" s="84"/>
+      <c r="R56" s="84"/>
+      <c r="S56" s="84"/>
+      <c r="T56" s="84"/>
+      <c r="U56" s="84"/>
+      <c r="V56" s="84"/>
+      <c r="W56" s="84"/>
+      <c r="X56" s="84"/>
+      <c r="Y56" s="84"/>
+      <c r="Z56" s="84"/>
+      <c r="AA56" s="84"/>
+      <c r="AB56" s="84"/>
+      <c r="AC56" s="85"/>
     </row>
     <row r="57" spans="1:29">
-      <c r="A57" s="149"/>
-      <c r="B57" s="150"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="80"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="80"/>
-      <c r="G57" s="80"/>
-      <c r="H57" s="80"/>
-      <c r="I57" s="80"/>
-      <c r="J57" s="80"/>
-      <c r="K57" s="80"/>
-      <c r="L57" s="80"/>
-      <c r="M57" s="80"/>
-      <c r="N57" s="80"/>
-      <c r="O57" s="80"/>
-      <c r="P57" s="80"/>
-      <c r="Q57" s="80"/>
-      <c r="R57" s="80"/>
-      <c r="S57" s="80"/>
-      <c r="T57" s="80"/>
-      <c r="U57" s="80"/>
-      <c r="V57" s="80"/>
-      <c r="W57" s="80"/>
-      <c r="X57" s="80"/>
-      <c r="Y57" s="80"/>
-      <c r="Z57" s="80"/>
-      <c r="AA57" s="80"/>
-      <c r="AB57" s="80"/>
-      <c r="AC57" s="81"/>
+      <c r="A57" s="81"/>
+      <c r="B57" s="82"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="91"/>
+      <c r="E57" s="91"/>
+      <c r="F57" s="91"/>
+      <c r="G57" s="91"/>
+      <c r="H57" s="91"/>
+      <c r="I57" s="91"/>
+      <c r="J57" s="91"/>
+      <c r="K57" s="91"/>
+      <c r="L57" s="91"/>
+      <c r="M57" s="91"/>
+      <c r="N57" s="91"/>
+      <c r="O57" s="91"/>
+      <c r="P57" s="91"/>
+      <c r="Q57" s="91"/>
+      <c r="R57" s="91"/>
+      <c r="S57" s="91"/>
+      <c r="T57" s="91"/>
+      <c r="U57" s="91"/>
+      <c r="V57" s="91"/>
+      <c r="W57" s="91"/>
+      <c r="X57" s="91"/>
+      <c r="Y57" s="91"/>
+      <c r="Z57" s="91"/>
+      <c r="AA57" s="91"/>
+      <c r="AB57" s="91"/>
+      <c r="AC57" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="142">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="F32:P32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F27:P27"/>
+    <mergeCell ref="F28:P28"/>
+    <mergeCell ref="F29:P29"/>
+    <mergeCell ref="F30:P30"/>
+    <mergeCell ref="F31:P31"/>
+    <mergeCell ref="K19:P20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="O22:P22"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="F24:H24"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:P47"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:P45"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="Q47:AC47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:P48"/>
-    <mergeCell ref="Q48:AC48"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:P56"/>
-    <mergeCell ref="Q56:AC56"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:P52"/>
-    <mergeCell ref="Q52:AC52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:P53"/>
-    <mergeCell ref="Q53:AC53"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:P49"/>
-    <mergeCell ref="Q49:AC49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:P50"/>
-    <mergeCell ref="Q50:AC50"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:P57"/>
-    <mergeCell ref="Q57:AC57"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:P54"/>
-    <mergeCell ref="Q54:AC54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:P55"/>
-    <mergeCell ref="Q55:AC55"/>
-    <mergeCell ref="Q45:AC45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:P46"/>
-    <mergeCell ref="Q46:AC46"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="W2:AB2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:R2"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="T2:V2"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
@@ -4224,64 +4225,64 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="W2:AB2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:R2"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="Q45:AC45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:P46"/>
+    <mergeCell ref="Q46:AC46"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:P45"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:P57"/>
+    <mergeCell ref="Q57:AC57"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:P54"/>
+    <mergeCell ref="Q54:AC54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:P55"/>
+    <mergeCell ref="Q55:AC55"/>
+    <mergeCell ref="Q47:AC47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:P48"/>
+    <mergeCell ref="Q48:AC48"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:P56"/>
+    <mergeCell ref="Q56:AC56"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:P52"/>
+    <mergeCell ref="Q52:AC52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:P53"/>
+    <mergeCell ref="Q53:AC53"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:P49"/>
+    <mergeCell ref="Q49:AC49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:P50"/>
+    <mergeCell ref="Q50:AC50"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:P47"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:G38"/>
     <mergeCell ref="H38:K38"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F27:P27"/>
-    <mergeCell ref="F28:P28"/>
-    <mergeCell ref="F29:P29"/>
-    <mergeCell ref="F30:P30"/>
-    <mergeCell ref="F31:P31"/>
-    <mergeCell ref="K19:P20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="F32:P32"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:K36"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="F4:J9 L4:O9">
@@ -4310,7 +4311,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="1" operator="containsText" id="{A7E7FD3B-4A2A-214F-9249-1477E994D411}">
-            <xm:f>NOT(ISERROR(SEARCH("-",S4)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("-",F4)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -4318,7 +4319,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>S4:AC14</xm:sqref>
+          <xm:sqref>S4:AC14 F12:J15</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/src/main/resources/excel/meetingSheet_1st2term.xlsx
+++ b/src/main/resources/excel/meetingSheet_1st2term.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/MEGAsync/IdeaProjects/student_management_system/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B6020E-32A7-0D49-864B-BE6E54963BF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E762DB-A1B7-2F4C-86E9-95355A903EF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="1460" windowWidth="25260" windowHeight="16540" xr2:uid="{B568BDAE-9867-864B-9F86-2CF23C3644F0}"/>
   </bookViews>
@@ -23,33 +23,13 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1776,6 +1756,33 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1788,7 +1795,235 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1806,286 +2041,31 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2426,7 +2406,7 @@
   <dimension ref="A1:AC57"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:E25"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2443,86 +2423,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" customHeight="1">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="129"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
       <c r="S1" s="3"/>
-      <c r="T1" s="131" t="s">
+      <c r="T1" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="131" t="s">
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="115"/>
+      <c r="AB1" s="115"/>
       <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="25" customHeight="1">
-      <c r="A2" s="128"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
       <c r="S2" s="6"/>
-      <c r="T2" s="145" t="s">
+      <c r="T2" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="U2" s="146"/>
-      <c r="V2" s="147"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
-      <c r="AA2" s="127"/>
-      <c r="AB2" s="127"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="132"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
       <c r="AC2" s="7"/>
     </row>
     <row r="3" spans="1:29" ht="18" customHeight="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="D3" s="135" t="s">
+      <c r="B3" s="117"/>
+      <c r="D3" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="136"/>
+      <c r="E3" s="119"/>
       <c r="F3" s="14" t="s">
         <v>12</v>
       </c>
@@ -2598,14 +2578,11 @@
       <c r="A4" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="96" t="str" cm="1">
-        <f t="array" ref="B4">IFERROR(_xlfn.IFS(P9&gt;9,P9*2+P7,P8&gt;9,P8*2+P7,P7&gt;9,P7*3,P6&gt;9,P6*3,P5&gt;9,P5*3,P4&gt;9,P4*3),"")</f>
-        <v/>
-      </c>
-      <c r="D4" s="137" t="s">
+      <c r="B4" s="129"/>
+      <c r="D4" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="138"/>
+      <c r="E4" s="121"/>
       <c r="F4" s="18"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -2634,11 +2611,11 @@
     </row>
     <row r="5" spans="1:29" ht="18" customHeight="1">
       <c r="A5" s="126"/>
-      <c r="B5" s="96"/>
-      <c r="D5" s="139" t="s">
+      <c r="B5" s="129"/>
+      <c r="D5" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="140"/>
+      <c r="E5" s="123"/>
       <c r="F5" s="21"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -2669,14 +2646,11 @@
       <c r="A6" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="96" t="str" cm="1">
-        <f t="array" ref="B6">IFERROR(_xlfn.IFS(P9&gt;9,P9,P8&gt;9,P8,P7&gt;9,P7,P6&gt;9,P6,P5&gt;9,P5,P4&gt;9,P4),"")</f>
-        <v/>
-      </c>
-      <c r="D6" s="141" t="s">
+      <c r="B6" s="129"/>
+      <c r="D6" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="142"/>
+      <c r="E6" s="125"/>
       <c r="F6" s="25"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
@@ -2705,11 +2679,11 @@
     </row>
     <row r="7" spans="1:29" ht="18" customHeight="1">
       <c r="A7" s="126"/>
-      <c r="B7" s="96"/>
-      <c r="D7" s="143" t="s">
+      <c r="B7" s="129"/>
+      <c r="D7" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="144"/>
+      <c r="E7" s="128"/>
       <c r="F7" s="29"/>
       <c r="G7" s="30"/>
       <c r="H7" s="30"/>
@@ -2740,14 +2714,11 @@
       <c r="A8" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="96" t="str" cm="1">
-        <f t="array" ref="B8">IFERROR(_xlfn.IFS(K9&gt;9,K9+K7,K8&gt;9,K8+K7,K7&gt;9,K7*2,K6&gt;0,K6*2,K5&gt;0,K5*2,K4&gt;0,K4*2),"")</f>
-        <v/>
-      </c>
-      <c r="D8" s="120" t="s">
+      <c r="B8" s="129"/>
+      <c r="D8" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="121"/>
+      <c r="E8" s="146"/>
       <c r="F8" s="33"/>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
@@ -2776,11 +2747,11 @@
     </row>
     <row r="9" spans="1:29" ht="18" customHeight="1">
       <c r="A9" s="126"/>
-      <c r="B9" s="96"/>
-      <c r="D9" s="122" t="s">
+      <c r="B9" s="129"/>
+      <c r="D9" s="147" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="123"/>
+      <c r="E9" s="148"/>
       <c r="F9" s="29"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
@@ -2811,10 +2782,7 @@
       <c r="A10" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="96" t="str" cm="1">
-        <f t="array" ref="B10">IFERROR(_xlfn.IFS(K9&gt;0,K9,K8&gt;0,K8,K7&gt;0,K7,K6&gt;0,K6,K5&gt;0,K5,K4&gt;0,K4),"")</f>
-        <v/>
-      </c>
+      <c r="B10" s="129"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="4"/>
@@ -2845,11 +2813,11 @@
     </row>
     <row r="11" spans="1:29" ht="18" customHeight="1">
       <c r="A11" s="126"/>
-      <c r="B11" s="96"/>
-      <c r="D11" s="124" t="s">
+      <c r="B11" s="129"/>
+      <c r="D11" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="125"/>
+      <c r="E11" s="90"/>
       <c r="F11" s="43" t="s">
         <v>12</v>
       </c>
@@ -2899,17 +2867,14 @@
       <c r="AC11" s="45"/>
     </row>
     <row r="12" spans="1:29" ht="18" customHeight="1">
-      <c r="A12" s="160" t="s">
+      <c r="A12" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="97" t="str">
-        <f>IFERROR(LOOKUP(10^10,N12:N15),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D12" s="148" t="s">
+      <c r="B12" s="170"/>
+      <c r="D12" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="149"/>
+      <c r="E12" s="93"/>
       <c r="F12" s="18"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2918,18 +2883,9 @@
       <c r="K12" s="20"/>
       <c r="L12" s="41"/>
       <c r="M12" s="42"/>
-      <c r="N12" s="61" t="str">
-        <f>IFERROR(ROUND(IF(K12="","",K12/500*100*5+$B$4/135*100*3),1),"")</f>
-        <v/>
-      </c>
-      <c r="O12" s="65" t="str">
-        <f>IFERROR(ROUND(IF(K12="","",K12/500*100*4+$B$4/135*100*4),1),"")</f>
-        <v/>
-      </c>
-      <c r="P12" s="66" t="str">
-        <f>IFERROR(ROUND(IF(K12="","",K12/500*100*3+$B$4/135*100*5),1),"")</f>
-        <v/>
-      </c>
+      <c r="N12" s="61"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="66"/>
       <c r="R12" s="40" t="s">
         <v>55</v>
       </c>
@@ -2946,12 +2902,12 @@
       <c r="AC12" s="64"/>
     </row>
     <row r="13" spans="1:29" ht="18" customHeight="1">
-      <c r="A13" s="160"/>
-      <c r="B13" s="98"/>
-      <c r="D13" s="148" t="s">
+      <c r="A13" s="71"/>
+      <c r="B13" s="171"/>
+      <c r="D13" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="149"/>
+      <c r="E13" s="93"/>
       <c r="F13" s="18"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -2960,18 +2916,9 @@
       <c r="K13" s="20"/>
       <c r="L13" s="41"/>
       <c r="M13" s="42"/>
-      <c r="N13" s="61" t="str">
-        <f t="shared" ref="N13:N15" si="0">IFERROR(ROUND(IF(K13="","",K13/500*100*5+$B$4/135*100*3),1),"")</f>
-        <v/>
-      </c>
-      <c r="O13" s="65" t="str">
-        <f t="shared" ref="O13:O15" si="1">IFERROR(ROUND(IF(K13="","",K13/500*100*4+$B$4/135*100*4),1),"")</f>
-        <v/>
-      </c>
-      <c r="P13" s="66" t="str">
-        <f t="shared" ref="P13:P15" si="2">IFERROR(ROUND(IF(K13="","",K13/500*100*3+$B$4/135*100*5),1),"")</f>
-        <v/>
-      </c>
+      <c r="N13" s="61"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="66"/>
       <c r="R13" s="37" t="s">
         <v>56</v>
       </c>
@@ -2988,17 +2935,14 @@
       <c r="AC13" s="42"/>
     </row>
     <row r="14" spans="1:29" ht="18" customHeight="1">
-      <c r="A14" s="158" t="s">
+      <c r="A14" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="97" t="str">
-        <f>IFERROR(LOOKUP(10^10,O12:O15),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D14" s="148" t="s">
+      <c r="B14" s="170"/>
+      <c r="D14" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="149"/>
+      <c r="E14" s="93"/>
       <c r="F14" s="18"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -3007,18 +2951,9 @@
       <c r="K14" s="20"/>
       <c r="L14" s="41"/>
       <c r="M14" s="42"/>
-      <c r="N14" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O14" s="65" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P14" s="66" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N14" s="61"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="66"/>
       <c r="R14" s="38" t="s">
         <v>57</v>
       </c>
@@ -3035,12 +2970,12 @@
       <c r="AC14" s="45"/>
     </row>
     <row r="15" spans="1:29" ht="18" customHeight="1">
-      <c r="A15" s="161"/>
-      <c r="B15" s="98"/>
-      <c r="D15" s="150" t="s">
+      <c r="A15" s="72"/>
+      <c r="B15" s="171"/>
+      <c r="D15" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="151"/>
+      <c r="E15" s="95"/>
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
@@ -3049,18 +2984,9 @@
       <c r="K15" s="24"/>
       <c r="L15" s="44"/>
       <c r="M15" s="45"/>
-      <c r="N15" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O15" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P15" s="68" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N15" s="62"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="68"/>
       <c r="R15" s="8"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
@@ -3075,13 +3001,10 @@
       <c r="AC15" s="4"/>
     </row>
     <row r="16" spans="1:29" ht="18" customHeight="1">
-      <c r="A16" s="158" t="s">
+      <c r="A16" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="97" t="str">
-        <f>IFERROR(LOOKUP(10^10,P12:P15),"-")</f>
-        <v>-</v>
-      </c>
+      <c r="B16" s="170"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -3111,8 +3034,8 @@
       <c r="AC16" s="51"/>
     </row>
     <row r="17" spans="1:29" ht="18" customHeight="1">
-      <c r="A17" s="159"/>
-      <c r="B17" s="99"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="172"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -3156,30 +3079,30 @@
       <c r="AC18" s="53"/>
     </row>
     <row r="19" spans="1:29" ht="18" customHeight="1">
-      <c r="A19" s="100" t="s">
+      <c r="A19" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="101"/>
-      <c r="C19" s="110" t="s">
+      <c r="B19" s="134"/>
+      <c r="C19" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="116" t="s">
+      <c r="D19" s="100"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="141" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="153" t="s">
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="142"/>
+      <c r="K19" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="L19" s="111"/>
-      <c r="M19" s="111"/>
-      <c r="N19" s="111"/>
-      <c r="O19" s="111"/>
-      <c r="P19" s="154"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="101"/>
       <c r="R19" s="55"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -3194,22 +3117,22 @@
       <c r="AC19" s="53"/>
     </row>
     <row r="20" spans="1:29" ht="20" customHeight="1">
-      <c r="A20" s="102"/>
-      <c r="B20" s="103"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="114"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="155"/>
+      <c r="A20" s="135"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="144"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="103"/>
+      <c r="P20" s="104"/>
       <c r="R20" s="54"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
@@ -3224,28 +3147,28 @@
       <c r="AC20" s="53"/>
     </row>
     <row r="21" spans="1:29" ht="19" customHeight="1">
-      <c r="A21" s="108"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="167"/>
-      <c r="D21" s="168"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="156" t="str">
+      <c r="A21" s="137"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="73" t="str">
         <f>IF(I21="","","９科目合計：")</f>
         <v/>
       </c>
-      <c r="G21" s="157"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="104" t="str">
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="107" t="str">
         <f>IF(O21="","","５科目合計：")</f>
         <v/>
       </c>
-      <c r="L21" s="105"/>
-      <c r="M21" s="105"/>
-      <c r="N21" s="105"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="107"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="105"/>
+      <c r="P21" s="109"/>
       <c r="R21" s="54"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -3260,28 +3183,28 @@
       <c r="AC21" s="53"/>
     </row>
     <row r="22" spans="1:29" ht="19" customHeight="1">
-      <c r="A22" s="108"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="167"/>
-      <c r="D22" s="168"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="156" t="str">
+      <c r="A22" s="137"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="73" t="str">
         <f>IF(I22="","","９科目合計：")</f>
         <v/>
       </c>
-      <c r="G22" s="157"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="104" t="str">
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="107" t="str">
         <f>IF(O22="","","５科目合計：")</f>
         <v/>
       </c>
-      <c r="L22" s="105"/>
-      <c r="M22" s="105"/>
-      <c r="N22" s="105"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="107"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="105"/>
+      <c r="P22" s="109"/>
       <c r="R22" s="54"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
@@ -3296,28 +3219,28 @@
       <c r="AC22" s="53"/>
     </row>
     <row r="23" spans="1:29" ht="18" customHeight="1">
-      <c r="A23" s="108"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="167"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="156" t="str">
-        <f t="shared" ref="F23:F25" si="3">IF(I23="","","９科目合計：")</f>
+      <c r="A23" s="137"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="73" t="str">
+        <f t="shared" ref="F23:F25" si="0">IF(I23="","","９科目合計：")</f>
         <v/>
       </c>
-      <c r="G23" s="157"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="104" t="str">
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="107" t="str">
         <f>IF(O23="","","５科目合計：")</f>
         <v/>
       </c>
-      <c r="L23" s="105"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="105"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="107"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="105"/>
+      <c r="P23" s="109"/>
       <c r="R23" s="54"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
@@ -3332,31 +3255,31 @@
       <c r="AC23" s="53"/>
     </row>
     <row r="24" spans="1:29" ht="18" customHeight="1">
-      <c r="A24" s="108"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="167" t="str">
+      <c r="A24" s="137"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="75" t="str">
         <f>IF(I24="","","９科目合計：")</f>
         <v/>
       </c>
-      <c r="D24" s="168"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="156" t="str">
-        <f t="shared" si="3"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="73" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G24" s="157"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="104" t="str">
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="107" t="str">
         <f>IF(O24="","","５科目合計：")</f>
         <v/>
       </c>
-      <c r="L24" s="105"/>
-      <c r="M24" s="105"/>
-      <c r="N24" s="105"/>
-      <c r="O24" s="106"/>
-      <c r="P24" s="107"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="109"/>
       <c r="R24" s="54"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
@@ -3371,31 +3294,31 @@
       <c r="AC24" s="53"/>
     </row>
     <row r="25" spans="1:29" ht="18" customHeight="1">
-      <c r="A25" s="77"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="170" t="str">
+      <c r="A25" s="162"/>
+      <c r="B25" s="163"/>
+      <c r="C25" s="164" t="str">
         <f>IF(I25="","","９科目合計：")</f>
         <v/>
       </c>
-      <c r="D25" s="171"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="79" t="str">
-        <f t="shared" si="3"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="166"/>
+      <c r="F25" s="167" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="75" t="str">
+      <c r="G25" s="168"/>
+      <c r="H25" s="168"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="159"/>
+      <c r="K25" s="160" t="str">
         <f>IF(O25="","","５科目合計：")</f>
         <v/>
       </c>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="163"/>
+      <c r="L25" s="161"/>
+      <c r="M25" s="161"/>
+      <c r="N25" s="161"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="86"/>
       <c r="R25" s="54"/>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
@@ -3424,28 +3347,28 @@
       <c r="AC26" s="53"/>
     </row>
     <row r="27" spans="1:29" ht="19" customHeight="1">
-      <c r="A27" s="124" t="s">
+      <c r="A27" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="125"/>
-      <c r="C27" s="125" t="s">
+      <c r="B27" s="90"/>
+      <c r="C27" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125" t="s">
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="125"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="125"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="125"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="152"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="96"/>
       <c r="R27" s="54"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
@@ -3460,22 +3383,22 @@
       <c r="AC27" s="53"/>
     </row>
     <row r="28" spans="1:29" ht="18" customHeight="1">
-      <c r="A28" s="69"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="85"/>
+      <c r="A28" s="78"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="169"/>
+      <c r="D28" s="169"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="97"/>
+      <c r="L28" s="97"/>
+      <c r="M28" s="97"/>
+      <c r="N28" s="97"/>
+      <c r="O28" s="97"/>
+      <c r="P28" s="98"/>
       <c r="R28" s="54"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
@@ -3490,22 +3413,22 @@
       <c r="AC28" s="53"/>
     </row>
     <row r="29" spans="1:29" ht="18" customHeight="1">
-      <c r="A29" s="69"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="85"/>
+      <c r="A29" s="78"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="169"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="97"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="97"/>
+      <c r="O29" s="97"/>
+      <c r="P29" s="98"/>
       <c r="R29" s="54"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
@@ -3520,22 +3443,22 @@
       <c r="AC29" s="53"/>
     </row>
     <row r="30" spans="1:29" ht="18" customHeight="1">
-      <c r="A30" s="69"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="85"/>
+      <c r="A30" s="78"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="97"/>
+      <c r="M30" s="97"/>
+      <c r="N30" s="97"/>
+      <c r="O30" s="97"/>
+      <c r="P30" s="98"/>
       <c r="R30" s="54"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
@@ -3550,22 +3473,22 @@
       <c r="AC30" s="53"/>
     </row>
     <row r="31" spans="1:29" ht="18" customHeight="1">
-      <c r="A31" s="69"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="85"/>
+      <c r="A31" s="78"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="169"/>
+      <c r="D31" s="169"/>
+      <c r="E31" s="169"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="97"/>
+      <c r="L31" s="97"/>
+      <c r="M31" s="97"/>
+      <c r="N31" s="97"/>
+      <c r="O31" s="97"/>
+      <c r="P31" s="98"/>
       <c r="R31" s="54"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
@@ -3580,22 +3503,22 @@
       <c r="AC31" s="53"/>
     </row>
     <row r="32" spans="1:29" ht="18" customHeight="1">
-      <c r="A32" s="81"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="162"/>
-      <c r="D32" s="162"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="91"/>
-      <c r="M32" s="91"/>
-      <c r="N32" s="91"/>
-      <c r="O32" s="91"/>
-      <c r="P32" s="92"/>
+      <c r="A32" s="151"/>
+      <c r="B32" s="152"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="82"/>
+      <c r="P32" s="83"/>
       <c r="R32" s="56"/>
       <c r="S32" s="57"/>
       <c r="T32" s="57"/>
@@ -3616,125 +3539,125 @@
       </c>
     </row>
     <row r="35" spans="1:29">
-      <c r="A35" s="164" t="s">
+      <c r="A35" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="165"/>
-      <c r="C35" s="165" t="s">
+      <c r="B35" s="88"/>
+      <c r="C35" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="165"/>
-      <c r="E35" s="165"/>
-      <c r="F35" s="165"/>
-      <c r="G35" s="165"/>
-      <c r="H35" s="165" t="s">
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="I35" s="165"/>
-      <c r="J35" s="165"/>
-      <c r="K35" s="166"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="91"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
     </row>
     <row r="36" spans="1:29">
-      <c r="A36" s="69"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="72"/>
+      <c r="A36" s="78"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="81"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
     </row>
     <row r="37" spans="1:29">
-      <c r="A37" s="69"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="72"/>
+      <c r="A37" s="78"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="81"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
     </row>
     <row r="38" spans="1:29">
-      <c r="A38" s="69"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="72"/>
+      <c r="A38" s="78"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="81"/>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
     </row>
     <row r="39" spans="1:29">
-      <c r="A39" s="69"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="72"/>
+      <c r="A39" s="78"/>
+      <c r="B39" s="79"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="81"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
     </row>
     <row r="40" spans="1:29">
-      <c r="A40" s="69"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="72"/>
+      <c r="A40" s="78"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="80"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="80"/>
+      <c r="K40" s="81"/>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
     </row>
     <row r="41" spans="1:29">
-      <c r="A41" s="81"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="94"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="94"/>
-      <c r="I41" s="94"/>
-      <c r="J41" s="94"/>
-      <c r="K41" s="95"/>
+      <c r="A41" s="151"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="153"/>
+      <c r="D41" s="153"/>
+      <c r="E41" s="153"/>
+      <c r="F41" s="153"/>
+      <c r="G41" s="153"/>
+      <c r="H41" s="153"/>
+      <c r="I41" s="153"/>
+      <c r="J41" s="153"/>
+      <c r="K41" s="154"/>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
@@ -3751,196 +3674,196 @@
       </c>
     </row>
     <row r="45" spans="1:29">
-      <c r="A45" s="86" t="s">
+      <c r="A45" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="87"/>
-      <c r="C45" s="87" t="s">
+      <c r="B45" s="149"/>
+      <c r="C45" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="87"/>
-      <c r="M45" s="87"/>
-      <c r="N45" s="87"/>
-      <c r="O45" s="87"/>
-      <c r="P45" s="87"/>
-      <c r="Q45" s="87" t="s">
+      <c r="D45" s="149"/>
+      <c r="E45" s="149"/>
+      <c r="F45" s="149"/>
+      <c r="G45" s="149"/>
+      <c r="H45" s="149"/>
+      <c r="I45" s="149"/>
+      <c r="J45" s="149"/>
+      <c r="K45" s="149"/>
+      <c r="L45" s="149"/>
+      <c r="M45" s="149"/>
+      <c r="N45" s="149"/>
+      <c r="O45" s="149"/>
+      <c r="P45" s="149"/>
+      <c r="Q45" s="149" t="s">
         <v>66</v>
       </c>
-      <c r="R45" s="87"/>
-      <c r="S45" s="87"/>
-      <c r="T45" s="87"/>
-      <c r="U45" s="87"/>
-      <c r="V45" s="87"/>
-      <c r="W45" s="87"/>
-      <c r="X45" s="87"/>
-      <c r="Y45" s="87"/>
-      <c r="Z45" s="87"/>
-      <c r="AA45" s="87"/>
-      <c r="AB45" s="87"/>
-      <c r="AC45" s="93"/>
+      <c r="R45" s="149"/>
+      <c r="S45" s="149"/>
+      <c r="T45" s="149"/>
+      <c r="U45" s="149"/>
+      <c r="V45" s="149"/>
+      <c r="W45" s="149"/>
+      <c r="X45" s="149"/>
+      <c r="Y45" s="149"/>
+      <c r="Z45" s="149"/>
+      <c r="AA45" s="149"/>
+      <c r="AB45" s="149"/>
+      <c r="AC45" s="150"/>
     </row>
     <row r="46" spans="1:29">
-      <c r="A46" s="69"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="84"/>
-      <c r="M46" s="84"/>
-      <c r="N46" s="84"/>
-      <c r="O46" s="84"/>
-      <c r="P46" s="84"/>
-      <c r="Q46" s="84"/>
-      <c r="R46" s="84"/>
-      <c r="S46" s="84"/>
-      <c r="T46" s="84"/>
-      <c r="U46" s="84"/>
-      <c r="V46" s="84"/>
-      <c r="W46" s="84"/>
-      <c r="X46" s="84"/>
-      <c r="Y46" s="84"/>
-      <c r="Z46" s="84"/>
-      <c r="AA46" s="84"/>
-      <c r="AB46" s="84"/>
-      <c r="AC46" s="85"/>
+      <c r="A46" s="78"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="97"/>
+      <c r="G46" s="97"/>
+      <c r="H46" s="97"/>
+      <c r="I46" s="97"/>
+      <c r="J46" s="97"/>
+      <c r="K46" s="97"/>
+      <c r="L46" s="97"/>
+      <c r="M46" s="97"/>
+      <c r="N46" s="97"/>
+      <c r="O46" s="97"/>
+      <c r="P46" s="97"/>
+      <c r="Q46" s="97"/>
+      <c r="R46" s="97"/>
+      <c r="S46" s="97"/>
+      <c r="T46" s="97"/>
+      <c r="U46" s="97"/>
+      <c r="V46" s="97"/>
+      <c r="W46" s="97"/>
+      <c r="X46" s="97"/>
+      <c r="Y46" s="97"/>
+      <c r="Z46" s="97"/>
+      <c r="AA46" s="97"/>
+      <c r="AB46" s="97"/>
+      <c r="AC46" s="98"/>
     </row>
     <row r="47" spans="1:29">
-      <c r="A47" s="69"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="84"/>
-      <c r="J47" s="84"/>
-      <c r="K47" s="84"/>
-      <c r="L47" s="84"/>
-      <c r="M47" s="84"/>
-      <c r="N47" s="84"/>
-      <c r="O47" s="84"/>
-      <c r="P47" s="84"/>
-      <c r="Q47" s="84"/>
-      <c r="R47" s="84"/>
-      <c r="S47" s="84"/>
-      <c r="T47" s="84"/>
-      <c r="U47" s="84"/>
-      <c r="V47" s="84"/>
-      <c r="W47" s="84"/>
-      <c r="X47" s="84"/>
-      <c r="Y47" s="84"/>
-      <c r="Z47" s="84"/>
-      <c r="AA47" s="84"/>
-      <c r="AB47" s="84"/>
-      <c r="AC47" s="85"/>
+      <c r="A47" s="78"/>
+      <c r="B47" s="79"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="97"/>
+      <c r="H47" s="97"/>
+      <c r="I47" s="97"/>
+      <c r="J47" s="97"/>
+      <c r="K47" s="97"/>
+      <c r="L47" s="97"/>
+      <c r="M47" s="97"/>
+      <c r="N47" s="97"/>
+      <c r="O47" s="97"/>
+      <c r="P47" s="97"/>
+      <c r="Q47" s="97"/>
+      <c r="R47" s="97"/>
+      <c r="S47" s="97"/>
+      <c r="T47" s="97"/>
+      <c r="U47" s="97"/>
+      <c r="V47" s="97"/>
+      <c r="W47" s="97"/>
+      <c r="X47" s="97"/>
+      <c r="Y47" s="97"/>
+      <c r="Z47" s="97"/>
+      <c r="AA47" s="97"/>
+      <c r="AB47" s="97"/>
+      <c r="AC47" s="98"/>
     </row>
     <row r="48" spans="1:29">
-      <c r="A48" s="69"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="84"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="84"/>
-      <c r="H48" s="84"/>
-      <c r="I48" s="84"/>
-      <c r="J48" s="84"/>
-      <c r="K48" s="84"/>
-      <c r="L48" s="84"/>
-      <c r="M48" s="84"/>
-      <c r="N48" s="84"/>
-      <c r="O48" s="84"/>
-      <c r="P48" s="84"/>
-      <c r="Q48" s="84"/>
-      <c r="R48" s="84"/>
-      <c r="S48" s="84"/>
-      <c r="T48" s="84"/>
-      <c r="U48" s="84"/>
-      <c r="V48" s="84"/>
-      <c r="W48" s="84"/>
-      <c r="X48" s="84"/>
-      <c r="Y48" s="84"/>
-      <c r="Z48" s="84"/>
-      <c r="AA48" s="84"/>
-      <c r="AB48" s="84"/>
-      <c r="AC48" s="85"/>
+      <c r="A48" s="78"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="97"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="97"/>
+      <c r="F48" s="97"/>
+      <c r="G48" s="97"/>
+      <c r="H48" s="97"/>
+      <c r="I48" s="97"/>
+      <c r="J48" s="97"/>
+      <c r="K48" s="97"/>
+      <c r="L48" s="97"/>
+      <c r="M48" s="97"/>
+      <c r="N48" s="97"/>
+      <c r="O48" s="97"/>
+      <c r="P48" s="97"/>
+      <c r="Q48" s="97"/>
+      <c r="R48" s="97"/>
+      <c r="S48" s="97"/>
+      <c r="T48" s="97"/>
+      <c r="U48" s="97"/>
+      <c r="V48" s="97"/>
+      <c r="W48" s="97"/>
+      <c r="X48" s="97"/>
+      <c r="Y48" s="97"/>
+      <c r="Z48" s="97"/>
+      <c r="AA48" s="97"/>
+      <c r="AB48" s="97"/>
+      <c r="AC48" s="98"/>
     </row>
     <row r="49" spans="1:29">
-      <c r="A49" s="69"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="84"/>
-      <c r="J49" s="84"/>
-      <c r="K49" s="84"/>
-      <c r="L49" s="84"/>
-      <c r="M49" s="84"/>
-      <c r="N49" s="84"/>
-      <c r="O49" s="84"/>
-      <c r="P49" s="84"/>
-      <c r="Q49" s="84"/>
-      <c r="R49" s="84"/>
-      <c r="S49" s="84"/>
-      <c r="T49" s="84"/>
-      <c r="U49" s="84"/>
-      <c r="V49" s="84"/>
-      <c r="W49" s="84"/>
-      <c r="X49" s="84"/>
-      <c r="Y49" s="84"/>
-      <c r="Z49" s="84"/>
-      <c r="AA49" s="84"/>
-      <c r="AB49" s="84"/>
-      <c r="AC49" s="85"/>
+      <c r="A49" s="78"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="97"/>
+      <c r="D49" s="97"/>
+      <c r="E49" s="97"/>
+      <c r="F49" s="97"/>
+      <c r="G49" s="97"/>
+      <c r="H49" s="97"/>
+      <c r="I49" s="97"/>
+      <c r="J49" s="97"/>
+      <c r="K49" s="97"/>
+      <c r="L49" s="97"/>
+      <c r="M49" s="97"/>
+      <c r="N49" s="97"/>
+      <c r="O49" s="97"/>
+      <c r="P49" s="97"/>
+      <c r="Q49" s="97"/>
+      <c r="R49" s="97"/>
+      <c r="S49" s="97"/>
+      <c r="T49" s="97"/>
+      <c r="U49" s="97"/>
+      <c r="V49" s="97"/>
+      <c r="W49" s="97"/>
+      <c r="X49" s="97"/>
+      <c r="Y49" s="97"/>
+      <c r="Z49" s="97"/>
+      <c r="AA49" s="97"/>
+      <c r="AB49" s="97"/>
+      <c r="AC49" s="98"/>
     </row>
     <row r="50" spans="1:29">
-      <c r="A50" s="81"/>
-      <c r="B50" s="82"/>
-      <c r="C50" s="91"/>
-      <c r="D50" s="91"/>
-      <c r="E50" s="91"/>
-      <c r="F50" s="91"/>
-      <c r="G50" s="91"/>
-      <c r="H50" s="91"/>
-      <c r="I50" s="91"/>
-      <c r="J50" s="91"/>
-      <c r="K50" s="91"/>
-      <c r="L50" s="91"/>
-      <c r="M50" s="91"/>
-      <c r="N50" s="91"/>
-      <c r="O50" s="91"/>
-      <c r="P50" s="91"/>
-      <c r="Q50" s="91"/>
-      <c r="R50" s="91"/>
-      <c r="S50" s="91"/>
-      <c r="T50" s="91"/>
-      <c r="U50" s="91"/>
-      <c r="V50" s="91"/>
-      <c r="W50" s="91"/>
-      <c r="X50" s="91"/>
-      <c r="Y50" s="91"/>
-      <c r="Z50" s="91"/>
-      <c r="AA50" s="91"/>
-      <c r="AB50" s="91"/>
-      <c r="AC50" s="92"/>
+      <c r="A50" s="151"/>
+      <c r="B50" s="152"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="82"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="82"/>
+      <c r="M50" s="82"/>
+      <c r="N50" s="82"/>
+      <c r="O50" s="82"/>
+      <c r="P50" s="82"/>
+      <c r="Q50" s="82"/>
+      <c r="R50" s="82"/>
+      <c r="S50" s="82"/>
+      <c r="T50" s="82"/>
+      <c r="U50" s="82"/>
+      <c r="V50" s="82"/>
+      <c r="W50" s="82"/>
+      <c r="X50" s="82"/>
+      <c r="Y50" s="82"/>
+      <c r="Z50" s="82"/>
+      <c r="AA50" s="82"/>
+      <c r="AB50" s="82"/>
+      <c r="AC50" s="83"/>
     </row>
     <row r="51" spans="1:29">
       <c r="A51" s="9" t="s">
@@ -3948,199 +3871,317 @@
       </c>
     </row>
     <row r="52" spans="1:29">
-      <c r="A52" s="86" t="s">
+      <c r="A52" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="87"/>
-      <c r="C52" s="87" t="s">
+      <c r="B52" s="149"/>
+      <c r="C52" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="87"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="H52" s="87"/>
-      <c r="I52" s="87"/>
-      <c r="J52" s="87"/>
-      <c r="K52" s="87"/>
-      <c r="L52" s="87"/>
-      <c r="M52" s="87"/>
-      <c r="N52" s="87"/>
-      <c r="O52" s="87"/>
-      <c r="P52" s="87"/>
-      <c r="Q52" s="88" t="s">
+      <c r="D52" s="149"/>
+      <c r="E52" s="149"/>
+      <c r="F52" s="149"/>
+      <c r="G52" s="149"/>
+      <c r="H52" s="149"/>
+      <c r="I52" s="149"/>
+      <c r="J52" s="149"/>
+      <c r="K52" s="149"/>
+      <c r="L52" s="149"/>
+      <c r="M52" s="149"/>
+      <c r="N52" s="149"/>
+      <c r="O52" s="149"/>
+      <c r="P52" s="149"/>
+      <c r="Q52" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="R52" s="89"/>
-      <c r="S52" s="89"/>
-      <c r="T52" s="89"/>
-      <c r="U52" s="89"/>
-      <c r="V52" s="89"/>
-      <c r="W52" s="89"/>
-      <c r="X52" s="89"/>
-      <c r="Y52" s="89"/>
-      <c r="Z52" s="89"/>
-      <c r="AA52" s="89"/>
-      <c r="AB52" s="89"/>
-      <c r="AC52" s="90"/>
+      <c r="R52" s="157"/>
+      <c r="S52" s="157"/>
+      <c r="T52" s="157"/>
+      <c r="U52" s="157"/>
+      <c r="V52" s="157"/>
+      <c r="W52" s="157"/>
+      <c r="X52" s="157"/>
+      <c r="Y52" s="157"/>
+      <c r="Z52" s="157"/>
+      <c r="AA52" s="157"/>
+      <c r="AB52" s="157"/>
+      <c r="AC52" s="158"/>
     </row>
     <row r="53" spans="1:29">
-      <c r="A53" s="69"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="84"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="84"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="84"/>
-      <c r="K53" s="84"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="84"/>
-      <c r="N53" s="84"/>
-      <c r="O53" s="84"/>
-      <c r="P53" s="84"/>
-      <c r="Q53" s="84"/>
-      <c r="R53" s="84"/>
-      <c r="S53" s="84"/>
-      <c r="T53" s="84"/>
-      <c r="U53" s="84"/>
-      <c r="V53" s="84"/>
-      <c r="W53" s="84"/>
-      <c r="X53" s="84"/>
-      <c r="Y53" s="84"/>
-      <c r="Z53" s="84"/>
-      <c r="AA53" s="84"/>
-      <c r="AB53" s="84"/>
-      <c r="AC53" s="85"/>
+      <c r="A53" s="78"/>
+      <c r="B53" s="79"/>
+      <c r="C53" s="97"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="97"/>
+      <c r="F53" s="97"/>
+      <c r="G53" s="97"/>
+      <c r="H53" s="97"/>
+      <c r="I53" s="97"/>
+      <c r="J53" s="97"/>
+      <c r="K53" s="97"/>
+      <c r="L53" s="97"/>
+      <c r="M53" s="97"/>
+      <c r="N53" s="97"/>
+      <c r="O53" s="97"/>
+      <c r="P53" s="97"/>
+      <c r="Q53" s="97"/>
+      <c r="R53" s="97"/>
+      <c r="S53" s="97"/>
+      <c r="T53" s="97"/>
+      <c r="U53" s="97"/>
+      <c r="V53" s="97"/>
+      <c r="W53" s="97"/>
+      <c r="X53" s="97"/>
+      <c r="Y53" s="97"/>
+      <c r="Z53" s="97"/>
+      <c r="AA53" s="97"/>
+      <c r="AB53" s="97"/>
+      <c r="AC53" s="98"/>
     </row>
     <row r="54" spans="1:29">
-      <c r="A54" s="69"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="84"/>
-      <c r="H54" s="84"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="84"/>
-      <c r="K54" s="84"/>
-      <c r="L54" s="84"/>
-      <c r="M54" s="84"/>
-      <c r="N54" s="84"/>
-      <c r="O54" s="84"/>
-      <c r="P54" s="84"/>
-      <c r="Q54" s="84"/>
-      <c r="R54" s="84"/>
-      <c r="S54" s="84"/>
-      <c r="T54" s="84"/>
-      <c r="U54" s="84"/>
-      <c r="V54" s="84"/>
-      <c r="W54" s="84"/>
-      <c r="X54" s="84"/>
-      <c r="Y54" s="84"/>
-      <c r="Z54" s="84"/>
-      <c r="AA54" s="84"/>
-      <c r="AB54" s="84"/>
-      <c r="AC54" s="85"/>
+      <c r="A54" s="78"/>
+      <c r="B54" s="79"/>
+      <c r="C54" s="97"/>
+      <c r="D54" s="97"/>
+      <c r="E54" s="97"/>
+      <c r="F54" s="97"/>
+      <c r="G54" s="97"/>
+      <c r="H54" s="97"/>
+      <c r="I54" s="97"/>
+      <c r="J54" s="97"/>
+      <c r="K54" s="97"/>
+      <c r="L54" s="97"/>
+      <c r="M54" s="97"/>
+      <c r="N54" s="97"/>
+      <c r="O54" s="97"/>
+      <c r="P54" s="97"/>
+      <c r="Q54" s="97"/>
+      <c r="R54" s="97"/>
+      <c r="S54" s="97"/>
+      <c r="T54" s="97"/>
+      <c r="U54" s="97"/>
+      <c r="V54" s="97"/>
+      <c r="W54" s="97"/>
+      <c r="X54" s="97"/>
+      <c r="Y54" s="97"/>
+      <c r="Z54" s="97"/>
+      <c r="AA54" s="97"/>
+      <c r="AB54" s="97"/>
+      <c r="AC54" s="98"/>
     </row>
     <row r="55" spans="1:29">
-      <c r="A55" s="69"/>
-      <c r="B55" s="70"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="84"/>
-      <c r="H55" s="84"/>
-      <c r="I55" s="84"/>
-      <c r="J55" s="84"/>
-      <c r="K55" s="84"/>
-      <c r="L55" s="84"/>
-      <c r="M55" s="84"/>
-      <c r="N55" s="84"/>
-      <c r="O55" s="84"/>
-      <c r="P55" s="84"/>
-      <c r="Q55" s="84"/>
-      <c r="R55" s="84"/>
-      <c r="S55" s="84"/>
-      <c r="T55" s="84"/>
-      <c r="U55" s="84"/>
-      <c r="V55" s="84"/>
-      <c r="W55" s="84"/>
-      <c r="X55" s="84"/>
-      <c r="Y55" s="84"/>
-      <c r="Z55" s="84"/>
-      <c r="AA55" s="84"/>
-      <c r="AB55" s="84"/>
-      <c r="AC55" s="85"/>
+      <c r="A55" s="78"/>
+      <c r="B55" s="79"/>
+      <c r="C55" s="97"/>
+      <c r="D55" s="97"/>
+      <c r="E55" s="97"/>
+      <c r="F55" s="97"/>
+      <c r="G55" s="97"/>
+      <c r="H55" s="97"/>
+      <c r="I55" s="97"/>
+      <c r="J55" s="97"/>
+      <c r="K55" s="97"/>
+      <c r="L55" s="97"/>
+      <c r="M55" s="97"/>
+      <c r="N55" s="97"/>
+      <c r="O55" s="97"/>
+      <c r="P55" s="97"/>
+      <c r="Q55" s="97"/>
+      <c r="R55" s="97"/>
+      <c r="S55" s="97"/>
+      <c r="T55" s="97"/>
+      <c r="U55" s="97"/>
+      <c r="V55" s="97"/>
+      <c r="W55" s="97"/>
+      <c r="X55" s="97"/>
+      <c r="Y55" s="97"/>
+      <c r="Z55" s="97"/>
+      <c r="AA55" s="97"/>
+      <c r="AB55" s="97"/>
+      <c r="AC55" s="98"/>
     </row>
     <row r="56" spans="1:29">
-      <c r="A56" s="69"/>
-      <c r="B56" s="70"/>
-      <c r="C56" s="84"/>
-      <c r="D56" s="84"/>
-      <c r="E56" s="84"/>
-      <c r="F56" s="84"/>
-      <c r="G56" s="84"/>
-      <c r="H56" s="84"/>
-      <c r="I56" s="84"/>
-      <c r="J56" s="84"/>
-      <c r="K56" s="84"/>
-      <c r="L56" s="84"/>
-      <c r="M56" s="84"/>
-      <c r="N56" s="84"/>
-      <c r="O56" s="84"/>
-      <c r="P56" s="84"/>
-      <c r="Q56" s="84"/>
-      <c r="R56" s="84"/>
-      <c r="S56" s="84"/>
-      <c r="T56" s="84"/>
-      <c r="U56" s="84"/>
-      <c r="V56" s="84"/>
-      <c r="W56" s="84"/>
-      <c r="X56" s="84"/>
-      <c r="Y56" s="84"/>
-      <c r="Z56" s="84"/>
-      <c r="AA56" s="84"/>
-      <c r="AB56" s="84"/>
-      <c r="AC56" s="85"/>
+      <c r="A56" s="78"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="97"/>
+      <c r="D56" s="97"/>
+      <c r="E56" s="97"/>
+      <c r="F56" s="97"/>
+      <c r="G56" s="97"/>
+      <c r="H56" s="97"/>
+      <c r="I56" s="97"/>
+      <c r="J56" s="97"/>
+      <c r="K56" s="97"/>
+      <c r="L56" s="97"/>
+      <c r="M56" s="97"/>
+      <c r="N56" s="97"/>
+      <c r="O56" s="97"/>
+      <c r="P56" s="97"/>
+      <c r="Q56" s="97"/>
+      <c r="R56" s="97"/>
+      <c r="S56" s="97"/>
+      <c r="T56" s="97"/>
+      <c r="U56" s="97"/>
+      <c r="V56" s="97"/>
+      <c r="W56" s="97"/>
+      <c r="X56" s="97"/>
+      <c r="Y56" s="97"/>
+      <c r="Z56" s="97"/>
+      <c r="AA56" s="97"/>
+      <c r="AB56" s="97"/>
+      <c r="AC56" s="98"/>
     </row>
     <row r="57" spans="1:29">
-      <c r="A57" s="81"/>
-      <c r="B57" s="82"/>
-      <c r="C57" s="91"/>
-      <c r="D57" s="91"/>
-      <c r="E57" s="91"/>
-      <c r="F57" s="91"/>
-      <c r="G57" s="91"/>
-      <c r="H57" s="91"/>
-      <c r="I57" s="91"/>
-      <c r="J57" s="91"/>
-      <c r="K57" s="91"/>
-      <c r="L57" s="91"/>
-      <c r="M57" s="91"/>
-      <c r="N57" s="91"/>
-      <c r="O57" s="91"/>
-      <c r="P57" s="91"/>
-      <c r="Q57" s="91"/>
-      <c r="R57" s="91"/>
-      <c r="S57" s="91"/>
-      <c r="T57" s="91"/>
-      <c r="U57" s="91"/>
-      <c r="V57" s="91"/>
-      <c r="W57" s="91"/>
-      <c r="X57" s="91"/>
-      <c r="Y57" s="91"/>
-      <c r="Z57" s="91"/>
-      <c r="AA57" s="91"/>
-      <c r="AB57" s="91"/>
-      <c r="AC57" s="92"/>
+      <c r="A57" s="151"/>
+      <c r="B57" s="152"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="82"/>
+      <c r="H57" s="82"/>
+      <c r="I57" s="82"/>
+      <c r="J57" s="82"/>
+      <c r="K57" s="82"/>
+      <c r="L57" s="82"/>
+      <c r="M57" s="82"/>
+      <c r="N57" s="82"/>
+      <c r="O57" s="82"/>
+      <c r="P57" s="82"/>
+      <c r="Q57" s="82"/>
+      <c r="R57" s="82"/>
+      <c r="S57" s="82"/>
+      <c r="T57" s="82"/>
+      <c r="U57" s="82"/>
+      <c r="V57" s="82"/>
+      <c r="W57" s="82"/>
+      <c r="X57" s="82"/>
+      <c r="Y57" s="82"/>
+      <c r="Z57" s="82"/>
+      <c r="AA57" s="82"/>
+      <c r="AB57" s="82"/>
+      <c r="AC57" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="142">
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="Q47:AC47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:P48"/>
+    <mergeCell ref="Q48:AC48"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:P56"/>
+    <mergeCell ref="Q56:AC56"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:P52"/>
+    <mergeCell ref="Q52:AC52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:P53"/>
+    <mergeCell ref="Q53:AC53"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:P49"/>
+    <mergeCell ref="Q49:AC49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:P50"/>
+    <mergeCell ref="Q50:AC50"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:P47"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:P57"/>
+    <mergeCell ref="Q57:AC57"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:P54"/>
+    <mergeCell ref="Q54:AC54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:P55"/>
+    <mergeCell ref="Q55:AC55"/>
+    <mergeCell ref="Q45:AC45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:P46"/>
+    <mergeCell ref="Q46:AC46"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:P45"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="C19:E20"/>
+    <mergeCell ref="F19:J20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="W2:AB2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:R2"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F27:P27"/>
+    <mergeCell ref="F28:P28"/>
+    <mergeCell ref="F29:P29"/>
+    <mergeCell ref="F30:P30"/>
+    <mergeCell ref="F31:P31"/>
+    <mergeCell ref="K19:P20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -4165,124 +4206,6 @@
     <mergeCell ref="C36:G36"/>
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F27:P27"/>
-    <mergeCell ref="F28:P28"/>
-    <mergeCell ref="F29:P29"/>
-    <mergeCell ref="F30:P30"/>
-    <mergeCell ref="F31:P31"/>
-    <mergeCell ref="K19:P20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="W2:AB2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:R2"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="C19:E20"/>
-    <mergeCell ref="F19:J20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="Q45:AC45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:P46"/>
-    <mergeCell ref="Q46:AC46"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:P45"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:P57"/>
-    <mergeCell ref="Q57:AC57"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:P54"/>
-    <mergeCell ref="Q54:AC54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:P55"/>
-    <mergeCell ref="Q55:AC55"/>
-    <mergeCell ref="Q47:AC47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:P48"/>
-    <mergeCell ref="Q48:AC48"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:P56"/>
-    <mergeCell ref="Q56:AC56"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:P52"/>
-    <mergeCell ref="Q52:AC52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:P53"/>
-    <mergeCell ref="Q53:AC53"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:P49"/>
-    <mergeCell ref="Q49:AC49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:P50"/>
-    <mergeCell ref="Q50:AC50"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:P47"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:K38"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="F4:J9 L4:O9">

--- a/src/main/resources/excel/meetingSheet_1st2term.xlsx
+++ b/src/main/resources/excel/meetingSheet_1st2term.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/MEGAsync/IdeaProjects/student_management_system/src/main/resources/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Dropbox/IdeaProjects/student_management_system/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E762DB-A1B7-2F4C-86E9-95355A903EF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A2F647-4960-A540-9204-03F78A3869A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="1460" windowWidth="25260" windowHeight="16540" xr2:uid="{B568BDAE-9867-864B-9F86-2CF23C3644F0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
   <si>
     <t>内申 /135</t>
   </si>
@@ -59,13 +59,6 @@
     </rPh>
     <rPh sb="4" eb="9">
       <t xml:space="preserve">ホゴシャメンダンシート </t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>2019年度</t>
-    <rPh sb="4" eb="6">
-      <t xml:space="preserve">ネンド </t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1548,7 +1541,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1756,6 +1749,279 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1768,45 +2034,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1816,256 +2046,13 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2406,7 +2393,7 @@
   <dimension ref="A1:AC57"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="K21" sqref="K21:N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2423,166 +2410,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="130"/>
+      <c r="B1" s="131" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="112" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="114" t="s">
+      <c r="U1" s="134"/>
+      <c r="V1" s="134"/>
+      <c r="W1" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="114" t="s">
+      <c r="X1" s="134"/>
+      <c r="Y1" s="134"/>
+      <c r="Z1" s="134"/>
+      <c r="AA1" s="134"/>
+      <c r="AB1" s="134"/>
+      <c r="AC1" s="2"/>
+    </row>
+    <row r="2" spans="1:29" ht="25" customHeight="1">
+      <c r="A2" s="130"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="147" t="s">
+        <v>68</v>
+      </c>
+      <c r="U2" s="148"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="129"/>
+      <c r="AA2" s="129"/>
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="7"/>
+    </row>
+    <row r="3" spans="1:29" ht="18" customHeight="1">
+      <c r="A3" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="115"/>
-      <c r="AB1" s="115"/>
-      <c r="AC1" s="2"/>
-    </row>
-    <row r="2" spans="1:29" ht="25" customHeight="1">
-      <c r="A2" s="111"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="130" t="s">
-        <v>69</v>
-      </c>
-      <c r="U2" s="131"/>
-      <c r="V2" s="132"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="110"/>
-      <c r="Z2" s="110"/>
-      <c r="AA2" s="110"/>
-      <c r="AB2" s="110"/>
-      <c r="AC2" s="7"/>
-    </row>
-    <row r="3" spans="1:29" ht="18" customHeight="1">
-      <c r="A3" s="116" t="s">
+      <c r="B3" s="136"/>
+      <c r="D3" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="D3" s="118" t="s">
+      <c r="E3" s="138"/>
+      <c r="F3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="119"/>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="I3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="J3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="K3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="L3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="M3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="N3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="O3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="P3" s="17" t="s">
         <v>21</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>22</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="V3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="W3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="X3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB3" s="14" t="s">
+      <c r="AC3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AC3" s="17" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="4" spans="1:29" ht="18" customHeight="1">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="129"/>
-      <c r="D4" s="120" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="121"/>
+      <c r="B4" s="97"/>
+      <c r="D4" s="139" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="140"/>
       <c r="F4" s="18"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -2595,7 +2580,7 @@
       <c r="O4" s="19"/>
       <c r="P4" s="20"/>
       <c r="R4" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S4" s="18"/>
       <c r="T4" s="5"/>
@@ -2610,12 +2595,12 @@
       <c r="AC4" s="42"/>
     </row>
     <row r="5" spans="1:29" ht="18" customHeight="1">
-      <c r="A5" s="126"/>
-      <c r="B5" s="129"/>
-      <c r="D5" s="122" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="123"/>
+      <c r="A5" s="128"/>
+      <c r="B5" s="97"/>
+      <c r="D5" s="141" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="142"/>
       <c r="F5" s="21"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -2628,7 +2613,7 @@
       <c r="O5" s="23"/>
       <c r="P5" s="24"/>
       <c r="R5" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S5" s="18"/>
       <c r="T5" s="5"/>
@@ -2643,14 +2628,14 @@
       <c r="AC5" s="42"/>
     </row>
     <row r="6" spans="1:29" ht="18" customHeight="1">
-      <c r="A6" s="126" t="s">
+      <c r="A6" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="129"/>
-      <c r="D6" s="124" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="125"/>
+      <c r="B6" s="97"/>
+      <c r="D6" s="143" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="144"/>
       <c r="F6" s="25"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
@@ -2663,7 +2648,7 @@
       <c r="O6" s="27"/>
       <c r="P6" s="28"/>
       <c r="R6" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S6" s="18"/>
       <c r="T6" s="5"/>
@@ -2678,12 +2663,12 @@
       <c r="AC6" s="42"/>
     </row>
     <row r="7" spans="1:29" ht="18" customHeight="1">
-      <c r="A7" s="126"/>
-      <c r="B7" s="129"/>
-      <c r="D7" s="127" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="128"/>
+      <c r="A7" s="128"/>
+      <c r="B7" s="97"/>
+      <c r="D7" s="145" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="146"/>
       <c r="F7" s="29"/>
       <c r="G7" s="30"/>
       <c r="H7" s="30"/>
@@ -2696,7 +2681,7 @@
       <c r="O7" s="31"/>
       <c r="P7" s="32"/>
       <c r="R7" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S7" s="21"/>
       <c r="T7" s="22"/>
@@ -2711,14 +2696,14 @@
       <c r="AC7" s="45"/>
     </row>
     <row r="8" spans="1:29" ht="18" customHeight="1">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="129"/>
-      <c r="D8" s="145" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="146"/>
+      <c r="B8" s="97"/>
+      <c r="D8" s="122" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="123"/>
       <c r="F8" s="33"/>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
@@ -2731,7 +2716,7 @@
       <c r="O8" s="35"/>
       <c r="P8" s="36"/>
       <c r="R8" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S8" s="25"/>
       <c r="T8" s="26"/>
@@ -2746,12 +2731,12 @@
       <c r="AC8" s="63"/>
     </row>
     <row r="9" spans="1:29" ht="18" customHeight="1">
-      <c r="A9" s="126"/>
-      <c r="B9" s="129"/>
-      <c r="D9" s="147" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="148"/>
+      <c r="A9" s="128"/>
+      <c r="B9" s="97"/>
+      <c r="D9" s="124" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="125"/>
       <c r="F9" s="29"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
@@ -2764,7 +2749,7 @@
       <c r="O9" s="31"/>
       <c r="P9" s="32"/>
       <c r="R9" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S9" s="18"/>
       <c r="T9" s="5"/>
@@ -2779,10 +2764,10 @@
       <c r="AC9" s="42"/>
     </row>
     <row r="10" spans="1:29" ht="18" customHeight="1">
-      <c r="A10" s="126" t="s">
+      <c r="A10" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="129"/>
+      <c r="B10" s="97"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="4"/>
@@ -2797,7 +2782,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="R10" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S10" s="18"/>
       <c r="T10" s="5"/>
@@ -2812,47 +2797,47 @@
       <c r="AC10" s="42"/>
     </row>
     <row r="11" spans="1:29" ht="18" customHeight="1">
-      <c r="A11" s="126"/>
-      <c r="B11" s="129"/>
-      <c r="D11" s="89" t="s">
+      <c r="A11" s="128"/>
+      <c r="B11" s="97"/>
+      <c r="D11" s="126" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="127"/>
+      <c r="F11" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="90"/>
-      <c r="F11" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="43" t="s">
+      <c r="M11" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="43" t="s">
+      <c r="N11" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" s="47" t="s">
+      <c r="O11" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="O11" s="48" t="s">
+      <c r="P11" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="P11" s="49" t="s">
-        <v>33</v>
-      </c>
       <c r="R11" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S11" s="21"/>
       <c r="T11" s="22"/>
@@ -2867,14 +2852,14 @@
       <c r="AC11" s="45"/>
     </row>
     <row r="12" spans="1:29" ht="18" customHeight="1">
-      <c r="A12" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="170"/>
-      <c r="D12" s="92" t="s">
+      <c r="A12" s="162" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="98"/>
+      <c r="D12" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="93"/>
+      <c r="E12" s="151"/>
       <c r="F12" s="18"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2887,7 +2872,7 @@
       <c r="O12" s="65"/>
       <c r="P12" s="66"/>
       <c r="R12" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S12" s="33"/>
       <c r="T12" s="34"/>
@@ -2902,12 +2887,12 @@
       <c r="AC12" s="64"/>
     </row>
     <row r="13" spans="1:29" ht="18" customHeight="1">
-      <c r="A13" s="71"/>
-      <c r="B13" s="171"/>
-      <c r="D13" s="92" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="93"/>
+      <c r="A13" s="162"/>
+      <c r="B13" s="99"/>
+      <c r="D13" s="150" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="151"/>
       <c r="F13" s="18"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -2920,7 +2905,7 @@
       <c r="O13" s="65"/>
       <c r="P13" s="66"/>
       <c r="R13" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S13" s="18"/>
       <c r="T13" s="5"/>
@@ -2935,14 +2920,14 @@
       <c r="AC13" s="42"/>
     </row>
     <row r="14" spans="1:29" ht="18" customHeight="1">
-      <c r="A14" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="170"/>
-      <c r="D14" s="92" t="s">
+      <c r="A14" s="160" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="98"/>
+      <c r="D14" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="93"/>
+      <c r="E14" s="151"/>
       <c r="F14" s="18"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -2955,7 +2940,7 @@
       <c r="O14" s="65"/>
       <c r="P14" s="66"/>
       <c r="R14" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S14" s="21"/>
       <c r="T14" s="22"/>
@@ -2970,12 +2955,12 @@
       <c r="AC14" s="45"/>
     </row>
     <row r="15" spans="1:29" ht="18" customHeight="1">
-      <c r="A15" s="72"/>
-      <c r="B15" s="171"/>
-      <c r="D15" s="94" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="95"/>
+      <c r="A15" s="163"/>
+      <c r="B15" s="99"/>
+      <c r="D15" s="152" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="153"/>
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
@@ -3001,10 +2986,10 @@
       <c r="AC15" s="4"/>
     </row>
     <row r="16" spans="1:29" ht="18" customHeight="1">
-      <c r="A16" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="170"/>
+      <c r="A16" s="160" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="98"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -3019,7 +3004,7 @@
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
       <c r="R16" s="60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S16" s="50"/>
       <c r="T16" s="50"/>
@@ -3034,8 +3019,8 @@
       <c r="AC16" s="51"/>
     </row>
     <row r="17" spans="1:29" ht="18" customHeight="1">
-      <c r="A17" s="70"/>
-      <c r="B17" s="172"/>
+      <c r="A17" s="161"/>
+      <c r="B17" s="100"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -3079,30 +3064,30 @@
       <c r="AC18" s="53"/>
     </row>
     <row r="19" spans="1:29" ht="18" customHeight="1">
-      <c r="A19" s="133" t="s">
+      <c r="A19" s="101" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="102"/>
+      <c r="C19" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="134"/>
-      <c r="C19" s="138" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="100"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="141" t="s">
+      <c r="D19" s="110"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="115" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="155" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="99" t="s">
-        <v>71</v>
-      </c>
-      <c r="L19" s="100"/>
-      <c r="M19" s="100"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="100"/>
-      <c r="P19" s="101"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="110"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="156"/>
       <c r="R19" s="55"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -3117,22 +3102,22 @@
       <c r="AC19" s="53"/>
     </row>
     <row r="20" spans="1:29" ht="20" customHeight="1">
-      <c r="A20" s="135"/>
-      <c r="B20" s="136"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="144"/>
-      <c r="K20" s="102"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="103"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="103"/>
-      <c r="P20" s="104"/>
+      <c r="A20" s="103"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="112"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="157"/>
       <c r="R20" s="54"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
@@ -3147,28 +3132,28 @@
       <c r="AC20" s="53"/>
     </row>
     <row r="21" spans="1:29" ht="19" customHeight="1">
-      <c r="A21" s="137"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="73" t="str">
+      <c r="A21" s="107"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="158" t="str">
         <f>IF(I21="","","９科目合計：")</f>
         <v/>
       </c>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="159"/>
       <c r="I21" s="105"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="107" t="str">
+      <c r="J21" s="108"/>
+      <c r="K21" s="169" t="str">
         <f>IF(O21="","","５科目合計：")</f>
         <v/>
       </c>
-      <c r="L21" s="108"/>
-      <c r="M21" s="108"/>
-      <c r="N21" s="108"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="105"/>
       <c r="O21" s="105"/>
-      <c r="P21" s="109"/>
+      <c r="P21" s="106"/>
       <c r="R21" s="54"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -3183,28 +3168,28 @@
       <c r="AC21" s="53"/>
     </row>
     <row r="22" spans="1:29" ht="19" customHeight="1">
-      <c r="A22" s="137"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="73" t="str">
+      <c r="A22" s="107"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="158" t="str">
         <f>IF(I22="","","９科目合計：")</f>
         <v/>
       </c>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="159"/>
       <c r="I22" s="105"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="107" t="str">
+      <c r="J22" s="108"/>
+      <c r="K22" s="169" t="str">
         <f>IF(O22="","","５科目合計：")</f>
         <v/>
       </c>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="108"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="105"/>
       <c r="O22" s="105"/>
-      <c r="P22" s="109"/>
+      <c r="P22" s="106"/>
       <c r="R22" s="54"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
@@ -3219,28 +3204,28 @@
       <c r="AC22" s="53"/>
     </row>
     <row r="23" spans="1:29" ht="18" customHeight="1">
-      <c r="A23" s="137"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="73" t="str">
+      <c r="A23" s="107"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="158" t="str">
         <f t="shared" ref="F23:F25" si="0">IF(I23="","","９科目合計：")</f>
         <v/>
       </c>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="159"/>
       <c r="I23" s="105"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="107" t="str">
+      <c r="J23" s="108"/>
+      <c r="K23" s="169" t="str">
         <f>IF(O23="","","５科目合計：")</f>
         <v/>
       </c>
-      <c r="L23" s="108"/>
-      <c r="M23" s="108"/>
-      <c r="N23" s="108"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="105"/>
       <c r="O23" s="105"/>
-      <c r="P23" s="109"/>
+      <c r="P23" s="106"/>
       <c r="R23" s="54"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
@@ -3255,31 +3240,31 @@
       <c r="AC23" s="53"/>
     </row>
     <row r="24" spans="1:29" ht="18" customHeight="1">
-      <c r="A24" s="137"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="75" t="str">
+      <c r="A24" s="107"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="119" t="str">
         <f>IF(I24="","","９科目合計：")</f>
         <v/>
       </c>
-      <c r="D24" s="76"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="73" t="str">
+      <c r="D24" s="120"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="158" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="159"/>
       <c r="I24" s="105"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="107" t="str">
+      <c r="J24" s="108"/>
+      <c r="K24" s="169" t="str">
         <f>IF(O24="","","５科目合計：")</f>
         <v/>
       </c>
-      <c r="L24" s="108"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="108"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
       <c r="O24" s="105"/>
-      <c r="P24" s="109"/>
+      <c r="P24" s="106"/>
       <c r="R24" s="54"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
@@ -3294,31 +3279,31 @@
       <c r="AC24" s="53"/>
     </row>
     <row r="25" spans="1:29" ht="18" customHeight="1">
-      <c r="A25" s="162"/>
-      <c r="B25" s="163"/>
-      <c r="C25" s="164" t="str">
+      <c r="A25" s="75"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="77" t="str">
         <f>IF(I25="","","９科目合計：")</f>
         <v/>
       </c>
-      <c r="D25" s="165"/>
-      <c r="E25" s="166"/>
-      <c r="F25" s="167" t="str">
+      <c r="D25" s="78"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="80" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G25" s="168"/>
-      <c r="H25" s="168"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="159"/>
-      <c r="K25" s="160" t="str">
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="170" t="str">
         <f>IF(O25="","","５科目合計：")</f>
         <v/>
       </c>
-      <c r="L25" s="161"/>
-      <c r="M25" s="161"/>
-      <c r="N25" s="161"/>
-      <c r="O25" s="85"/>
-      <c r="P25" s="86"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="165"/>
       <c r="R25" s="54"/>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
@@ -3347,28 +3332,28 @@
       <c r="AC26" s="53"/>
     </row>
     <row r="27" spans="1:29" ht="19" customHeight="1">
-      <c r="A27" s="89" t="s">
+      <c r="A27" s="126" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="127"/>
+      <c r="C27" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="90"/>
-      <c r="C27" s="90" t="s">
+      <c r="D27" s="127"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="96"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="127"/>
+      <c r="I27" s="127"/>
+      <c r="J27" s="127"/>
+      <c r="K27" s="127"/>
+      <c r="L27" s="127"/>
+      <c r="M27" s="127"/>
+      <c r="N27" s="127"/>
+      <c r="O27" s="127"/>
+      <c r="P27" s="154"/>
       <c r="R27" s="54"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
@@ -3383,22 +3368,22 @@
       <c r="AC27" s="53"/>
     </row>
     <row r="28" spans="1:29" ht="18" customHeight="1">
-      <c r="A28" s="78"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="169"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="97"/>
-      <c r="M28" s="97"/>
-      <c r="N28" s="97"/>
-      <c r="O28" s="97"/>
-      <c r="P28" s="98"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="86"/>
       <c r="R28" s="54"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
@@ -3413,22 +3398,22 @@
       <c r="AC28" s="53"/>
     </row>
     <row r="29" spans="1:29" ht="18" customHeight="1">
-      <c r="A29" s="78"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="97"/>
-      <c r="I29" s="97"/>
-      <c r="J29" s="97"/>
-      <c r="K29" s="97"/>
-      <c r="L29" s="97"/>
-      <c r="M29" s="97"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="98"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="86"/>
       <c r="R29" s="54"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
@@ -3443,22 +3428,22 @@
       <c r="AC29" s="53"/>
     </row>
     <row r="30" spans="1:29" ht="18" customHeight="1">
-      <c r="A30" s="78"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="169"/>
-      <c r="D30" s="169"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
-      <c r="L30" s="97"/>
-      <c r="M30" s="97"/>
-      <c r="N30" s="97"/>
-      <c r="O30" s="97"/>
-      <c r="P30" s="98"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="85"/>
+      <c r="O30" s="85"/>
+      <c r="P30" s="86"/>
       <c r="R30" s="54"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
@@ -3473,22 +3458,22 @@
       <c r="AC30" s="53"/>
     </row>
     <row r="31" spans="1:29" ht="18" customHeight="1">
-      <c r="A31" s="78"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="169"/>
-      <c r="D31" s="169"/>
-      <c r="E31" s="169"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
-      <c r="L31" s="97"/>
-      <c r="M31" s="97"/>
-      <c r="N31" s="97"/>
-      <c r="O31" s="97"/>
-      <c r="P31" s="98"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="85"/>
+      <c r="N31" s="85"/>
+      <c r="O31" s="85"/>
+      <c r="P31" s="86"/>
       <c r="R31" s="54"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
@@ -3503,22 +3488,22 @@
       <c r="AC31" s="53"/>
     </row>
     <row r="32" spans="1:29" ht="18" customHeight="1">
-      <c r="A32" s="151"/>
-      <c r="B32" s="152"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="82"/>
-      <c r="P32" s="83"/>
+      <c r="A32" s="82"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="92"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="93"/>
       <c r="R32" s="56"/>
       <c r="S32" s="57"/>
       <c r="T32" s="57"/>
@@ -3535,129 +3520,129 @@
     <row r="33" spans="1:29" ht="19" customHeight="1"/>
     <row r="34" spans="1:29">
       <c r="A34" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29">
+      <c r="A35" s="166" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="35" spans="1:29">
-      <c r="A35" s="87" t="s">
+      <c r="B35" s="167"/>
+      <c r="C35" s="167" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="88"/>
-      <c r="C35" s="88" t="s">
+      <c r="D35" s="167"/>
+      <c r="E35" s="167"/>
+      <c r="F35" s="167"/>
+      <c r="G35" s="167"/>
+      <c r="H35" s="167" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="I35" s="88"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="91"/>
+      <c r="I35" s="167"/>
+      <c r="J35" s="167"/>
+      <c r="K35" s="168"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
     </row>
     <row r="36" spans="1:29">
-      <c r="A36" s="78"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="81"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="72"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
     </row>
     <row r="37" spans="1:29">
-      <c r="A37" s="78"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="81"/>
+      <c r="A37" s="69"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="72"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
     </row>
     <row r="38" spans="1:29">
-      <c r="A38" s="78"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="81"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="72"/>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
     </row>
     <row r="39" spans="1:29">
-      <c r="A39" s="78"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="80"/>
-      <c r="I39" s="80"/>
-      <c r="J39" s="80"/>
-      <c r="K39" s="81"/>
+      <c r="A39" s="69"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="72"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
     </row>
     <row r="40" spans="1:29">
-      <c r="A40" s="78"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="80"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="80"/>
-      <c r="K40" s="81"/>
+      <c r="A40" s="69"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="72"/>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
     </row>
     <row r="41" spans="1:29">
-      <c r="A41" s="151"/>
-      <c r="B41" s="152"/>
-      <c r="C41" s="153"/>
-      <c r="D41" s="153"/>
-      <c r="E41" s="153"/>
-      <c r="F41" s="153"/>
-      <c r="G41" s="153"/>
-      <c r="H41" s="153"/>
-      <c r="I41" s="153"/>
-      <c r="J41" s="153"/>
-      <c r="K41" s="154"/>
+      <c r="A41" s="82"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="95"/>
+      <c r="I41" s="95"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="96"/>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
@@ -3665,463 +3650,465 @@
     </row>
     <row r="43" spans="1:29">
       <c r="A43" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:29">
       <c r="A44" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29">
+      <c r="A45" s="87" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="45" spans="1:29">
-      <c r="A45" s="155" t="s">
+      <c r="B45" s="88"/>
+      <c r="C45" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="149"/>
-      <c r="C45" s="149" t="s">
+      <c r="D45" s="88"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="88"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="88"/>
+      <c r="K45" s="88"/>
+      <c r="L45" s="88"/>
+      <c r="M45" s="88"/>
+      <c r="N45" s="88"/>
+      <c r="O45" s="88"/>
+      <c r="P45" s="88"/>
+      <c r="Q45" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="D45" s="149"/>
-      <c r="E45" s="149"/>
-      <c r="F45" s="149"/>
-      <c r="G45" s="149"/>
-      <c r="H45" s="149"/>
-      <c r="I45" s="149"/>
-      <c r="J45" s="149"/>
-      <c r="K45" s="149"/>
-      <c r="L45" s="149"/>
-      <c r="M45" s="149"/>
-      <c r="N45" s="149"/>
-      <c r="O45" s="149"/>
-      <c r="P45" s="149"/>
-      <c r="Q45" s="149" t="s">
-        <v>66</v>
-      </c>
-      <c r="R45" s="149"/>
-      <c r="S45" s="149"/>
-      <c r="T45" s="149"/>
-      <c r="U45" s="149"/>
-      <c r="V45" s="149"/>
-      <c r="W45" s="149"/>
-      <c r="X45" s="149"/>
-      <c r="Y45" s="149"/>
-      <c r="Z45" s="149"/>
-      <c r="AA45" s="149"/>
-      <c r="AB45" s="149"/>
-      <c r="AC45" s="150"/>
+      <c r="R45" s="88"/>
+      <c r="S45" s="88"/>
+      <c r="T45" s="88"/>
+      <c r="U45" s="88"/>
+      <c r="V45" s="88"/>
+      <c r="W45" s="88"/>
+      <c r="X45" s="88"/>
+      <c r="Y45" s="88"/>
+      <c r="Z45" s="88"/>
+      <c r="AA45" s="88"/>
+      <c r="AB45" s="88"/>
+      <c r="AC45" s="94"/>
     </row>
     <row r="46" spans="1:29">
-      <c r="A46" s="78"/>
-      <c r="B46" s="79"/>
-      <c r="C46" s="97"/>
-      <c r="D46" s="97"/>
-      <c r="E46" s="97"/>
-      <c r="F46" s="97"/>
-      <c r="G46" s="97"/>
-      <c r="H46" s="97"/>
-      <c r="I46" s="97"/>
-      <c r="J46" s="97"/>
-      <c r="K46" s="97"/>
-      <c r="L46" s="97"/>
-      <c r="M46" s="97"/>
-      <c r="N46" s="97"/>
-      <c r="O46" s="97"/>
-      <c r="P46" s="97"/>
-      <c r="Q46" s="97"/>
-      <c r="R46" s="97"/>
-      <c r="S46" s="97"/>
-      <c r="T46" s="97"/>
-      <c r="U46" s="97"/>
-      <c r="V46" s="97"/>
-      <c r="W46" s="97"/>
-      <c r="X46" s="97"/>
-      <c r="Y46" s="97"/>
-      <c r="Z46" s="97"/>
-      <c r="AA46" s="97"/>
-      <c r="AB46" s="97"/>
-      <c r="AC46" s="98"/>
+      <c r="A46" s="69"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="85"/>
+      <c r="L46" s="85"/>
+      <c r="M46" s="85"/>
+      <c r="N46" s="85"/>
+      <c r="O46" s="85"/>
+      <c r="P46" s="85"/>
+      <c r="Q46" s="85"/>
+      <c r="R46" s="85"/>
+      <c r="S46" s="85"/>
+      <c r="T46" s="85"/>
+      <c r="U46" s="85"/>
+      <c r="V46" s="85"/>
+      <c r="W46" s="85"/>
+      <c r="X46" s="85"/>
+      <c r="Y46" s="85"/>
+      <c r="Z46" s="85"/>
+      <c r="AA46" s="85"/>
+      <c r="AB46" s="85"/>
+      <c r="AC46" s="86"/>
     </row>
     <row r="47" spans="1:29">
-      <c r="A47" s="78"/>
-      <c r="B47" s="79"/>
-      <c r="C47" s="97"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="97"/>
-      <c r="F47" s="97"/>
-      <c r="G47" s="97"/>
-      <c r="H47" s="97"/>
-      <c r="I47" s="97"/>
-      <c r="J47" s="97"/>
-      <c r="K47" s="97"/>
-      <c r="L47" s="97"/>
-      <c r="M47" s="97"/>
-      <c r="N47" s="97"/>
-      <c r="O47" s="97"/>
-      <c r="P47" s="97"/>
-      <c r="Q47" s="97"/>
-      <c r="R47" s="97"/>
-      <c r="S47" s="97"/>
-      <c r="T47" s="97"/>
-      <c r="U47" s="97"/>
-      <c r="V47" s="97"/>
-      <c r="W47" s="97"/>
-      <c r="X47" s="97"/>
-      <c r="Y47" s="97"/>
-      <c r="Z47" s="97"/>
-      <c r="AA47" s="97"/>
-      <c r="AB47" s="97"/>
-      <c r="AC47" s="98"/>
+      <c r="A47" s="69"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="85"/>
+      <c r="I47" s="85"/>
+      <c r="J47" s="85"/>
+      <c r="K47" s="85"/>
+      <c r="L47" s="85"/>
+      <c r="M47" s="85"/>
+      <c r="N47" s="85"/>
+      <c r="O47" s="85"/>
+      <c r="P47" s="85"/>
+      <c r="Q47" s="85"/>
+      <c r="R47" s="85"/>
+      <c r="S47" s="85"/>
+      <c r="T47" s="85"/>
+      <c r="U47" s="85"/>
+      <c r="V47" s="85"/>
+      <c r="W47" s="85"/>
+      <c r="X47" s="85"/>
+      <c r="Y47" s="85"/>
+      <c r="Z47" s="85"/>
+      <c r="AA47" s="85"/>
+      <c r="AB47" s="85"/>
+      <c r="AC47" s="86"/>
     </row>
     <row r="48" spans="1:29">
-      <c r="A48" s="78"/>
-      <c r="B48" s="79"/>
-      <c r="C48" s="97"/>
-      <c r="D48" s="97"/>
-      <c r="E48" s="97"/>
-      <c r="F48" s="97"/>
-      <c r="G48" s="97"/>
-      <c r="H48" s="97"/>
-      <c r="I48" s="97"/>
-      <c r="J48" s="97"/>
-      <c r="K48" s="97"/>
-      <c r="L48" s="97"/>
-      <c r="M48" s="97"/>
-      <c r="N48" s="97"/>
-      <c r="O48" s="97"/>
-      <c r="P48" s="97"/>
-      <c r="Q48" s="97"/>
-      <c r="R48" s="97"/>
-      <c r="S48" s="97"/>
-      <c r="T48" s="97"/>
-      <c r="U48" s="97"/>
-      <c r="V48" s="97"/>
-      <c r="W48" s="97"/>
-      <c r="X48" s="97"/>
-      <c r="Y48" s="97"/>
-      <c r="Z48" s="97"/>
-      <c r="AA48" s="97"/>
-      <c r="AB48" s="97"/>
-      <c r="AC48" s="98"/>
+      <c r="A48" s="69"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="85"/>
+      <c r="J48" s="85"/>
+      <c r="K48" s="85"/>
+      <c r="L48" s="85"/>
+      <c r="M48" s="85"/>
+      <c r="N48" s="85"/>
+      <c r="O48" s="85"/>
+      <c r="P48" s="85"/>
+      <c r="Q48" s="85"/>
+      <c r="R48" s="85"/>
+      <c r="S48" s="85"/>
+      <c r="T48" s="85"/>
+      <c r="U48" s="85"/>
+      <c r="V48" s="85"/>
+      <c r="W48" s="85"/>
+      <c r="X48" s="85"/>
+      <c r="Y48" s="85"/>
+      <c r="Z48" s="85"/>
+      <c r="AA48" s="85"/>
+      <c r="AB48" s="85"/>
+      <c r="AC48" s="86"/>
     </row>
     <row r="49" spans="1:29">
-      <c r="A49" s="78"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="97"/>
-      <c r="D49" s="97"/>
-      <c r="E49" s="97"/>
-      <c r="F49" s="97"/>
-      <c r="G49" s="97"/>
-      <c r="H49" s="97"/>
-      <c r="I49" s="97"/>
-      <c r="J49" s="97"/>
-      <c r="K49" s="97"/>
-      <c r="L49" s="97"/>
-      <c r="M49" s="97"/>
-      <c r="N49" s="97"/>
-      <c r="O49" s="97"/>
-      <c r="P49" s="97"/>
-      <c r="Q49" s="97"/>
-      <c r="R49" s="97"/>
-      <c r="S49" s="97"/>
-      <c r="T49" s="97"/>
-      <c r="U49" s="97"/>
-      <c r="V49" s="97"/>
-      <c r="W49" s="97"/>
-      <c r="X49" s="97"/>
-      <c r="Y49" s="97"/>
-      <c r="Z49" s="97"/>
-      <c r="AA49" s="97"/>
-      <c r="AB49" s="97"/>
-      <c r="AC49" s="98"/>
+      <c r="A49" s="69"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="85"/>
+      <c r="I49" s="85"/>
+      <c r="J49" s="85"/>
+      <c r="K49" s="85"/>
+      <c r="L49" s="85"/>
+      <c r="M49" s="85"/>
+      <c r="N49" s="85"/>
+      <c r="O49" s="85"/>
+      <c r="P49" s="85"/>
+      <c r="Q49" s="85"/>
+      <c r="R49" s="85"/>
+      <c r="S49" s="85"/>
+      <c r="T49" s="85"/>
+      <c r="U49" s="85"/>
+      <c r="V49" s="85"/>
+      <c r="W49" s="85"/>
+      <c r="X49" s="85"/>
+      <c r="Y49" s="85"/>
+      <c r="Z49" s="85"/>
+      <c r="AA49" s="85"/>
+      <c r="AB49" s="85"/>
+      <c r="AC49" s="86"/>
     </row>
     <row r="50" spans="1:29">
-      <c r="A50" s="151"/>
-      <c r="B50" s="152"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="82"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="82"/>
-      <c r="K50" s="82"/>
-      <c r="L50" s="82"/>
-      <c r="M50" s="82"/>
-      <c r="N50" s="82"/>
-      <c r="O50" s="82"/>
-      <c r="P50" s="82"/>
-      <c r="Q50" s="82"/>
-      <c r="R50" s="82"/>
-      <c r="S50" s="82"/>
-      <c r="T50" s="82"/>
-      <c r="U50" s="82"/>
-      <c r="V50" s="82"/>
-      <c r="W50" s="82"/>
-      <c r="X50" s="82"/>
-      <c r="Y50" s="82"/>
-      <c r="Z50" s="82"/>
-      <c r="AA50" s="82"/>
-      <c r="AB50" s="82"/>
-      <c r="AC50" s="83"/>
+      <c r="A50" s="82"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="92"/>
+      <c r="G50" s="92"/>
+      <c r="H50" s="92"/>
+      <c r="I50" s="92"/>
+      <c r="J50" s="92"/>
+      <c r="K50" s="92"/>
+      <c r="L50" s="92"/>
+      <c r="M50" s="92"/>
+      <c r="N50" s="92"/>
+      <c r="O50" s="92"/>
+      <c r="P50" s="92"/>
+      <c r="Q50" s="92"/>
+      <c r="R50" s="92"/>
+      <c r="S50" s="92"/>
+      <c r="T50" s="92"/>
+      <c r="U50" s="92"/>
+      <c r="V50" s="92"/>
+      <c r="W50" s="92"/>
+      <c r="X50" s="92"/>
+      <c r="Y50" s="92"/>
+      <c r="Z50" s="92"/>
+      <c r="AA50" s="92"/>
+      <c r="AB50" s="92"/>
+      <c r="AC50" s="93"/>
     </row>
     <row r="51" spans="1:29">
       <c r="A51" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:29">
-      <c r="A52" s="155" t="s">
+      <c r="A52" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="88"/>
+      <c r="C52" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="149"/>
-      <c r="C52" s="149" t="s">
+      <c r="D52" s="88"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="88"/>
+      <c r="H52" s="88"/>
+      <c r="I52" s="88"/>
+      <c r="J52" s="88"/>
+      <c r="K52" s="88"/>
+      <c r="L52" s="88"/>
+      <c r="M52" s="88"/>
+      <c r="N52" s="88"/>
+      <c r="O52" s="88"/>
+      <c r="P52" s="88"/>
+      <c r="Q52" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="149"/>
-      <c r="E52" s="149"/>
-      <c r="F52" s="149"/>
-      <c r="G52" s="149"/>
-      <c r="H52" s="149"/>
-      <c r="I52" s="149"/>
-      <c r="J52" s="149"/>
-      <c r="K52" s="149"/>
-      <c r="L52" s="149"/>
-      <c r="M52" s="149"/>
-      <c r="N52" s="149"/>
-      <c r="O52" s="149"/>
-      <c r="P52" s="149"/>
-      <c r="Q52" s="156" t="s">
-        <v>66</v>
-      </c>
-      <c r="R52" s="157"/>
-      <c r="S52" s="157"/>
-      <c r="T52" s="157"/>
-      <c r="U52" s="157"/>
-      <c r="V52" s="157"/>
-      <c r="W52" s="157"/>
-      <c r="X52" s="157"/>
-      <c r="Y52" s="157"/>
-      <c r="Z52" s="157"/>
-      <c r="AA52" s="157"/>
-      <c r="AB52" s="157"/>
-      <c r="AC52" s="158"/>
+      <c r="R52" s="90"/>
+      <c r="S52" s="90"/>
+      <c r="T52" s="90"/>
+      <c r="U52" s="90"/>
+      <c r="V52" s="90"/>
+      <c r="W52" s="90"/>
+      <c r="X52" s="90"/>
+      <c r="Y52" s="90"/>
+      <c r="Z52" s="90"/>
+      <c r="AA52" s="90"/>
+      <c r="AB52" s="90"/>
+      <c r="AC52" s="91"/>
     </row>
     <row r="53" spans="1:29">
-      <c r="A53" s="78"/>
-      <c r="B53" s="79"/>
-      <c r="C53" s="97"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="97"/>
-      <c r="F53" s="97"/>
-      <c r="G53" s="97"/>
-      <c r="H53" s="97"/>
-      <c r="I53" s="97"/>
-      <c r="J53" s="97"/>
-      <c r="K53" s="97"/>
-      <c r="L53" s="97"/>
-      <c r="M53" s="97"/>
-      <c r="N53" s="97"/>
-      <c r="O53" s="97"/>
-      <c r="P53" s="97"/>
-      <c r="Q53" s="97"/>
-      <c r="R53" s="97"/>
-      <c r="S53" s="97"/>
-      <c r="T53" s="97"/>
-      <c r="U53" s="97"/>
-      <c r="V53" s="97"/>
-      <c r="W53" s="97"/>
-      <c r="X53" s="97"/>
-      <c r="Y53" s="97"/>
-      <c r="Z53" s="97"/>
-      <c r="AA53" s="97"/>
-      <c r="AB53" s="97"/>
-      <c r="AC53" s="98"/>
+      <c r="A53" s="69"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="85"/>
+      <c r="J53" s="85"/>
+      <c r="K53" s="85"/>
+      <c r="L53" s="85"/>
+      <c r="M53" s="85"/>
+      <c r="N53" s="85"/>
+      <c r="O53" s="85"/>
+      <c r="P53" s="85"/>
+      <c r="Q53" s="85"/>
+      <c r="R53" s="85"/>
+      <c r="S53" s="85"/>
+      <c r="T53" s="85"/>
+      <c r="U53" s="85"/>
+      <c r="V53" s="85"/>
+      <c r="W53" s="85"/>
+      <c r="X53" s="85"/>
+      <c r="Y53" s="85"/>
+      <c r="Z53" s="85"/>
+      <c r="AA53" s="85"/>
+      <c r="AB53" s="85"/>
+      <c r="AC53" s="86"/>
     </row>
     <row r="54" spans="1:29">
-      <c r="A54" s="78"/>
-      <c r="B54" s="79"/>
-      <c r="C54" s="97"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="97"/>
-      <c r="F54" s="97"/>
-      <c r="G54" s="97"/>
-      <c r="H54" s="97"/>
-      <c r="I54" s="97"/>
-      <c r="J54" s="97"/>
-      <c r="K54" s="97"/>
-      <c r="L54" s="97"/>
-      <c r="M54" s="97"/>
-      <c r="N54" s="97"/>
-      <c r="O54" s="97"/>
-      <c r="P54" s="97"/>
-      <c r="Q54" s="97"/>
-      <c r="R54" s="97"/>
-      <c r="S54" s="97"/>
-      <c r="T54" s="97"/>
-      <c r="U54" s="97"/>
-      <c r="V54" s="97"/>
-      <c r="W54" s="97"/>
-      <c r="X54" s="97"/>
-      <c r="Y54" s="97"/>
-      <c r="Z54" s="97"/>
-      <c r="AA54" s="97"/>
-      <c r="AB54" s="97"/>
-      <c r="AC54" s="98"/>
+      <c r="A54" s="69"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="85"/>
+      <c r="I54" s="85"/>
+      <c r="J54" s="85"/>
+      <c r="K54" s="85"/>
+      <c r="L54" s="85"/>
+      <c r="M54" s="85"/>
+      <c r="N54" s="85"/>
+      <c r="O54" s="85"/>
+      <c r="P54" s="85"/>
+      <c r="Q54" s="85"/>
+      <c r="R54" s="85"/>
+      <c r="S54" s="85"/>
+      <c r="T54" s="85"/>
+      <c r="U54" s="85"/>
+      <c r="V54" s="85"/>
+      <c r="W54" s="85"/>
+      <c r="X54" s="85"/>
+      <c r="Y54" s="85"/>
+      <c r="Z54" s="85"/>
+      <c r="AA54" s="85"/>
+      <c r="AB54" s="85"/>
+      <c r="AC54" s="86"/>
     </row>
     <row r="55" spans="1:29">
-      <c r="A55" s="78"/>
-      <c r="B55" s="79"/>
-      <c r="C55" s="97"/>
-      <c r="D55" s="97"/>
-      <c r="E55" s="97"/>
-      <c r="F55" s="97"/>
-      <c r="G55" s="97"/>
-      <c r="H55" s="97"/>
-      <c r="I55" s="97"/>
-      <c r="J55" s="97"/>
-      <c r="K55" s="97"/>
-      <c r="L55" s="97"/>
-      <c r="M55" s="97"/>
-      <c r="N55" s="97"/>
-      <c r="O55" s="97"/>
-      <c r="P55" s="97"/>
-      <c r="Q55" s="97"/>
-      <c r="R55" s="97"/>
-      <c r="S55" s="97"/>
-      <c r="T55" s="97"/>
-      <c r="U55" s="97"/>
-      <c r="V55" s="97"/>
-      <c r="W55" s="97"/>
-      <c r="X55" s="97"/>
-      <c r="Y55" s="97"/>
-      <c r="Z55" s="97"/>
-      <c r="AA55" s="97"/>
-      <c r="AB55" s="97"/>
-      <c r="AC55" s="98"/>
+      <c r="A55" s="69"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="85"/>
+      <c r="J55" s="85"/>
+      <c r="K55" s="85"/>
+      <c r="L55" s="85"/>
+      <c r="M55" s="85"/>
+      <c r="N55" s="85"/>
+      <c r="O55" s="85"/>
+      <c r="P55" s="85"/>
+      <c r="Q55" s="85"/>
+      <c r="R55" s="85"/>
+      <c r="S55" s="85"/>
+      <c r="T55" s="85"/>
+      <c r="U55" s="85"/>
+      <c r="V55" s="85"/>
+      <c r="W55" s="85"/>
+      <c r="X55" s="85"/>
+      <c r="Y55" s="85"/>
+      <c r="Z55" s="85"/>
+      <c r="AA55" s="85"/>
+      <c r="AB55" s="85"/>
+      <c r="AC55" s="86"/>
     </row>
     <row r="56" spans="1:29">
-      <c r="A56" s="78"/>
-      <c r="B56" s="79"/>
-      <c r="C56" s="97"/>
-      <c r="D56" s="97"/>
-      <c r="E56" s="97"/>
-      <c r="F56" s="97"/>
-      <c r="G56" s="97"/>
-      <c r="H56" s="97"/>
-      <c r="I56" s="97"/>
-      <c r="J56" s="97"/>
-      <c r="K56" s="97"/>
-      <c r="L56" s="97"/>
-      <c r="M56" s="97"/>
-      <c r="N56" s="97"/>
-      <c r="O56" s="97"/>
-      <c r="P56" s="97"/>
-      <c r="Q56" s="97"/>
-      <c r="R56" s="97"/>
-      <c r="S56" s="97"/>
-      <c r="T56" s="97"/>
-      <c r="U56" s="97"/>
-      <c r="V56" s="97"/>
-      <c r="W56" s="97"/>
-      <c r="X56" s="97"/>
-      <c r="Y56" s="97"/>
-      <c r="Z56" s="97"/>
-      <c r="AA56" s="97"/>
-      <c r="AB56" s="97"/>
-      <c r="AC56" s="98"/>
+      <c r="A56" s="69"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="85"/>
+      <c r="F56" s="85"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="85"/>
+      <c r="I56" s="85"/>
+      <c r="J56" s="85"/>
+      <c r="K56" s="85"/>
+      <c r="L56" s="85"/>
+      <c r="M56" s="85"/>
+      <c r="N56" s="85"/>
+      <c r="O56" s="85"/>
+      <c r="P56" s="85"/>
+      <c r="Q56" s="85"/>
+      <c r="R56" s="85"/>
+      <c r="S56" s="85"/>
+      <c r="T56" s="85"/>
+      <c r="U56" s="85"/>
+      <c r="V56" s="85"/>
+      <c r="W56" s="85"/>
+      <c r="X56" s="85"/>
+      <c r="Y56" s="85"/>
+      <c r="Z56" s="85"/>
+      <c r="AA56" s="85"/>
+      <c r="AB56" s="85"/>
+      <c r="AC56" s="86"/>
     </row>
     <row r="57" spans="1:29">
-      <c r="A57" s="151"/>
-      <c r="B57" s="152"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="82"/>
-      <c r="G57" s="82"/>
-      <c r="H57" s="82"/>
-      <c r="I57" s="82"/>
-      <c r="J57" s="82"/>
-      <c r="K57" s="82"/>
-      <c r="L57" s="82"/>
-      <c r="M57" s="82"/>
-      <c r="N57" s="82"/>
-      <c r="O57" s="82"/>
-      <c r="P57" s="82"/>
-      <c r="Q57" s="82"/>
-      <c r="R57" s="82"/>
-      <c r="S57" s="82"/>
-      <c r="T57" s="82"/>
-      <c r="U57" s="82"/>
-      <c r="V57" s="82"/>
-      <c r="W57" s="82"/>
-      <c r="X57" s="82"/>
-      <c r="Y57" s="82"/>
-      <c r="Z57" s="82"/>
-      <c r="AA57" s="82"/>
-      <c r="AB57" s="82"/>
-      <c r="AC57" s="83"/>
+      <c r="A57" s="82"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="92"/>
+      <c r="F57" s="92"/>
+      <c r="G57" s="92"/>
+      <c r="H57" s="92"/>
+      <c r="I57" s="92"/>
+      <c r="J57" s="92"/>
+      <c r="K57" s="92"/>
+      <c r="L57" s="92"/>
+      <c r="M57" s="92"/>
+      <c r="N57" s="92"/>
+      <c r="O57" s="92"/>
+      <c r="P57" s="92"/>
+      <c r="Q57" s="92"/>
+      <c r="R57" s="92"/>
+      <c r="S57" s="92"/>
+      <c r="T57" s="92"/>
+      <c r="U57" s="92"/>
+      <c r="V57" s="92"/>
+      <c r="W57" s="92"/>
+      <c r="X57" s="92"/>
+      <c r="Y57" s="92"/>
+      <c r="Z57" s="92"/>
+      <c r="AA57" s="92"/>
+      <c r="AB57" s="92"/>
+      <c r="AC57" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="142">
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="Q47:AC47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:P48"/>
-    <mergeCell ref="Q48:AC48"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:P56"/>
-    <mergeCell ref="Q56:AC56"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:P52"/>
-    <mergeCell ref="Q52:AC52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:P53"/>
-    <mergeCell ref="Q53:AC53"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:P49"/>
-    <mergeCell ref="Q49:AC49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:P50"/>
-    <mergeCell ref="Q50:AC50"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:P47"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:P57"/>
-    <mergeCell ref="Q57:AC57"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:P54"/>
-    <mergeCell ref="Q54:AC54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:P55"/>
-    <mergeCell ref="Q55:AC55"/>
-    <mergeCell ref="Q45:AC45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:P46"/>
-    <mergeCell ref="Q46:AC46"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:P45"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="F32:P32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F27:P27"/>
+    <mergeCell ref="F28:P28"/>
+    <mergeCell ref="F29:P29"/>
+    <mergeCell ref="F30:P30"/>
+    <mergeCell ref="F31:P31"/>
+    <mergeCell ref="K19:P20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="W2:AB2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:R2"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="T2:V2"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
@@ -4146,66 +4133,64 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="W2:AB2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:R2"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F27:P27"/>
-    <mergeCell ref="F28:P28"/>
-    <mergeCell ref="F29:P29"/>
-    <mergeCell ref="F30:P30"/>
-    <mergeCell ref="F31:P31"/>
-    <mergeCell ref="K19:P20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="F32:P32"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="Q45:AC45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:P46"/>
+    <mergeCell ref="Q46:AC46"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:P45"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:P57"/>
+    <mergeCell ref="Q57:AC57"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:P54"/>
+    <mergeCell ref="Q54:AC54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:P55"/>
+    <mergeCell ref="Q55:AC55"/>
+    <mergeCell ref="Q47:AC47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:P48"/>
+    <mergeCell ref="Q48:AC48"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:P56"/>
+    <mergeCell ref="Q56:AC56"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:P52"/>
+    <mergeCell ref="Q52:AC52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:P53"/>
+    <mergeCell ref="Q53:AC53"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:P49"/>
+    <mergeCell ref="Q49:AC49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:P50"/>
+    <mergeCell ref="Q50:AC50"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:P47"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="F4:J9 L4:O9">
